--- a/Tables/aq_hmf_metrics_outlet_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>aq</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>annual_hmf</t>
@@ -527,184 +532,199 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dec_hmf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1324809440169714</v>
+        <v>2.518088949456595</v>
       </c>
       <c r="C2" t="n">
-        <v>20.68982799004538</v>
+        <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>4.082264109509071</v>
+        <v>114.59</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02552910551570976</v>
+        <v>2.033757351491249</v>
       </c>
       <c r="F2" t="n">
-        <v>89.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>5.179762479871176</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>223.0202247108769</v>
+        <v>233.7777777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0021051310099372</v>
+        <v>0.320287321197144</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01442551313046734</v>
+        <v>0.3088801627128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05627533553379481</v>
+        <v>0.4241077545018384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02925894425648843</v>
+        <v>0.302641395069888</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04330254161458185</v>
+        <v>0.25291474709256</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0536696474452075</v>
+        <v>0.322703314549056</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03871217187125301</v>
+        <v>0.6725636176613761</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01565007481805235</v>
+        <v>0.6469071954331392</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01696644217250789</v>
+        <v>0.500406251724288</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0283347279707135</v>
+        <v>0.6344337377732256</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01889897981440601</v>
+        <v>0.468274559550336</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00971888317122699</v>
+        <v>0.3153717431621568</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1715028213644416</v>
+        <v>1.094833834706405</v>
       </c>
       <c r="C3" t="n">
-        <v>19.26769433465086</v>
+        <v>102.0519841269841</v>
       </c>
       <c r="D3" t="n">
-        <v>4.579844151538525</v>
+        <v>48.85834467120181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03590134468587871</v>
+        <v>0.6321424804834876</v>
       </c>
       <c r="F3" t="n">
-        <v>93.33333333333333</v>
+        <v>28.60057142857143</v>
       </c>
       <c r="G3" t="n">
-        <v>5.452753623188406</v>
+        <v>3.547222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>151.7215283267457</v>
+        <v>191.0714285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03929561593846622</v>
+        <v>0.126547814062619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04087648941422534</v>
+        <v>0.1686761469070399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05263799841353112</v>
+        <v>0.1909192147822072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0354949041381982</v>
+        <v>0.1605775865689228</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06180079491350322</v>
+        <v>0.1266100515107251</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02799506811366088</v>
+        <v>0.136415926300055</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03669224491300702</v>
+        <v>0.2374803427368023</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03213014267610603</v>
+        <v>0.2644020600519427</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04788672122590775</v>
+        <v>0.2069018988537766</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02239358364379966</v>
+        <v>0.2356455236972665</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03732800724076044</v>
+        <v>0.1687270340140647</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04588983872737602</v>
+        <v>0.0952702342885728</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.10600863015123</v>
+        <v>0.03983579546402535</v>
       </c>
       <c r="C4" t="n">
-        <v>51.86894586894587</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>24.14176502509836</v>
+        <v>3.725511463844797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5189952670046415</v>
+        <v>0.00672072926083699</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>10.204</v>
       </c>
       <c r="G4" t="n">
-        <v>2.427350427350428</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="H4" t="n">
-        <v>159.9159544159544</v>
+        <v>173.7777777777778</v>
       </c>
       <c r="I4" t="n">
-        <v>0.346237041231936</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4866946980708429</v>
+        <v>0.01537200891242208</v>
       </c>
       <c r="K4" t="n">
-        <v>0.346788491593152</v>
+        <v>0.01445798925899436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527912511909469</v>
+        <v>0.00115784187725808</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2184078378258</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.094437816084864</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.047055803006016</v>
+        <v>0.002019729665939328</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -716,266 +736,291 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.063692516720448</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.146699388169824</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.094833834706405</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C5" t="n">
-        <v>102.0519841269841</v>
+        <v>37.875</v>
       </c>
       <c r="D5" t="n">
-        <v>48.85834467120181</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6321424804834876</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F5" t="n">
-        <v>28.60057142857143</v>
+        <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.547222222222222</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>191.0714285714286</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.126547814062619</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1686761469070399</v>
+        <v>0.005151020155053697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1909192147822072</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1605775865689228</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1266100515107251</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N5" t="n">
-        <v>0.136415926300055</v>
+        <v>0.00687834326695824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2374803427368023</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2644020600519427</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2069018988537766</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2356455236972665</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1687270340140647</v>
+        <v>0.002909712297143232</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0952702342885728</v>
+        <v>0.00777215886651792</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5018416888711366</v>
+        <v>0.02360318930504457</v>
       </c>
       <c r="C6" t="n">
-        <v>26.01611242439731</v>
+        <v>29.1875</v>
       </c>
       <c r="D6" t="n">
-        <v>11.02757047934685</v>
+        <v>8.146472849046379</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1920322026615707</v>
+        <v>0.006623660101278728</v>
       </c>
       <c r="F6" t="n">
-        <v>72.6938</v>
+        <v>68</v>
       </c>
       <c r="G6" t="n">
-        <v>3.142105907658233</v>
+        <v>4.145833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>167.2770237030412</v>
+        <v>229.4981060606061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1204560725289306</v>
+        <v>0.00166958392901328</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1579984284914142</v>
+        <v>0.00481517523471341</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2054445688532321</v>
+        <v>0.00937486973060064</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2505479427858411</v>
+        <v>0.006308739703534465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06871257189562054</v>
+        <v>0.00325425129844248</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02226519667942085</v>
+        <v>0.00557115834073176</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4245976812549731</v>
+        <v>0.007353969203507039</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04506807454822165</v>
+        <v>0.01145894433340608</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06401591323140196</v>
+        <v>0.01113874172840242</v>
       </c>
       <c r="R6" t="n">
-        <v>0.137568135228377</v>
+        <v>0.008481361700538202</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05629490643437603</v>
+        <v>0.002225833267580496</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1353742500375979</v>
+        <v>0.004655038127442192</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.01709494619344482</v>
       </c>
       <c r="C7" t="n">
-        <v>45.7</v>
+        <v>20.5</v>
       </c>
       <c r="D7" t="n">
-        <v>17.21071428571428</v>
+        <v>3.660785333947099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.003143090022745087</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>2.85</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>200.9</v>
+        <v>228.9545454545455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1844391751792157</v>
+        <v>0.00084488408863488</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2144138032465679</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.004846666157101441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.00116701653555648</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.00186918371732736</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O7" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0.00227811134434176</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.006118885441146239</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.005205890939028679</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.005954181975373364</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03063112583892587</v>
+        <v>0.001537917388366464</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5758231144813913</v>
+        <v>1.627407685013376</v>
       </c>
       <c r="C8" t="n">
-        <v>22.39373085933292</v>
+        <v>32.64285714285715</v>
       </c>
       <c r="D8" t="n">
-        <v>6.317379681997895</v>
+        <v>10.91875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1748945183422079</v>
+        <v>0.3792225882715258</v>
       </c>
       <c r="F8" t="n">
-        <v>82.62944999999999</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>3.880744284538798</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>172.6530504899322</v>
+        <v>145.4333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1725885622203202</v>
+        <v>0.771903646229632</v>
       </c>
       <c r="J8" t="n">
-        <v>0.170024119397971</v>
+        <v>0.634922599812928</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1994977749951963</v>
+        <v>0.5662128606475126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2162996356046705</v>
+        <v>0.265392282378384</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2040510234742242</v>
+        <v>0.04813025743340734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1755457014576395</v>
+        <v>0.022875481357344</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1950825475569927</v>
+        <v>0.003147764097792416</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1380850449428263</v>
+        <v>0.00305087970616128</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1306000880202613</v>
+        <v>0.015168768386688</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1362330361535846</v>
+        <v>0.04942082603404799</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09832030894180661</v>
+        <v>0.403603412611392</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1124697659909166</v>
+        <v>0.603452389175552</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -985,7 +1030,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4551085985490881</v>
+        <v>0.4551085985490882</v>
       </c>
       <c r="C9" t="n">
         <v>22.91011721341241</v>
@@ -1041,225 +1086,245 @@
       <c r="T9" t="n">
         <v>0.1489287902956168</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8133265071849793</v>
+        <v>0.0407344527078239</v>
       </c>
       <c r="C10" t="n">
-        <v>19.20746195558877</v>
+        <v>18.28</v>
       </c>
       <c r="D10" t="n">
-        <v>3.938977718147084</v>
+        <v>1.896946988683831</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1889305378173587</v>
+        <v>0.007367821022266251</v>
       </c>
       <c r="F10" t="n">
-        <v>94.39574999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>5.419657092591284</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="H10" t="n">
-        <v>108.193261345442</v>
+        <v>95.39583333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>0.322249642474971</v>
+        <v>0.01609976234013662</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2365229618406181</v>
+        <v>0.01922392204762624</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1395962327792729</v>
+        <v>0.01341065919915994</v>
       </c>
       <c r="L10" t="n">
-        <v>0.142448948589888</v>
+        <v>0.00395998640288496</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02043695375697979</v>
+        <v>0.00140922751463424</v>
       </c>
       <c r="N10" t="n">
-        <v>0.049634901394344</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.041545910994588</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0186041682162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.011254247512704</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03875133696234093</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2451821026760222</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.328823335584443</v>
+        <v>0.0048238314520032</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5073278038809613</v>
+        <v>1.613857805650413</v>
       </c>
       <c r="C11" t="n">
-        <v>19.75314924331915</v>
+        <v>28.83870967741936</v>
       </c>
       <c r="D11" t="n">
-        <v>4.660762481996547</v>
+        <v>14.87795698924731</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1079327300027508</v>
+        <v>0.8522581531760033</v>
       </c>
       <c r="F11" t="n">
-        <v>92.53333333333333</v>
+        <v>84</v>
       </c>
       <c r="G11" t="n">
-        <v>4.86140115258948</v>
+        <v>3.238095238095238</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6565836458954</v>
+        <v>213.2857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1291362707973906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1213261122143846</v>
+        <v>0.139210148581056</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1786291473755786</v>
+        <v>0.4095078149296512</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1535654941492967</v>
+        <v>1.079665050785904</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1048385889461587</v>
+        <v>0.7287247593253152</v>
       </c>
       <c r="N11" t="n">
-        <v>0.223875607522409</v>
+        <v>0.490293739466496</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07469022175820784</v>
+        <v>0.5262933510754559</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05729159960597984</v>
+        <v>0.05831005051872001</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3525704876415549</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="R11" t="n">
-        <v>0.111714567048253</v>
+        <v>0.4320163099550592</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08018661381321739</v>
+        <v>0.031665677784192</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09958890316587371</v>
+        <v>0.14557124500128</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8405368843419718</v>
+        <v>0.7818443645815026</v>
       </c>
       <c r="C12" t="n">
-        <v>25.00964091496978</v>
+        <v>24.85183388578974</v>
       </c>
       <c r="D12" t="n">
-        <v>7.308467321452022</v>
+        <v>11.44596991859301</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2708431945670212</v>
+        <v>0.3763775182567269</v>
       </c>
       <c r="F12" t="n">
-        <v>74.93875</v>
+        <v>74</v>
       </c>
       <c r="G12" t="n">
-        <v>3.642277115726566</v>
+        <v>2.367989867140971</v>
       </c>
       <c r="H12" t="n">
-        <v>188.6750239563246</v>
+        <v>204.1249494704503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.112100534184412</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1973626770037089</v>
+        <v>0.05994110088288</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1157792862628716</v>
+        <v>0.2383957079486073</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1070732388598011</v>
+        <v>0.4774528585861561</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3220333275287915</v>
+        <v>0.3124408362716704</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4937929242433289</v>
+        <v>0.2429957896750604</v>
       </c>
       <c r="O12" t="n">
-        <v>0.121005707634249</v>
+        <v>0.23283243948384</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0336404137608</v>
+        <v>0.028366684250016</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.184628105179728</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.3114871248781824</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01047666973675267</v>
+        <v>0.019036687821696</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02770495413197954</v>
+        <v>0.04852374833376</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1202757813101551</v>
+        <v>0.2755870048359825</v>
       </c>
       <c r="C13" t="n">
-        <v>39.34782608695652</v>
+        <v>21.69047619047619</v>
       </c>
       <c r="D13" t="n">
-        <v>20.95652173913043</v>
+        <v>6.446794871794872</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.1320609373306332</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G13" t="n">
-        <v>2.130434782608696</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="H13" t="n">
-        <v>247.6086956521739</v>
+        <v>195.4838709677419</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1268,866 +1333,4386 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1064904198284463</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02315794962495535</v>
+        <v>0.109224307042452</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.081498149862528</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.114919148514816</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.032050139655744</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0060919731101376</v>
+        <v>0.002079589214304</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.07309144444392</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.201353167455552</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0007339726638720001</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5413212374744584</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C14" t="n">
-        <v>20.45591408387886</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D14" t="n">
-        <v>5.330436257762343</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1589281347441329</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F14" t="n">
-        <v>88.60609090909091</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
-        <v>4.850839061819232</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H14" t="n">
-        <v>154.4887763346573</v>
+        <v>172.4615384615385</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1051589967016333</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1821570789663401</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2191911139001632</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L14" t="n">
-        <v>0.237167300553667</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2321390411079619</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1045484690706224</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04727407955664396</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05339529789406861</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07083521432864383</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1303060897462782</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05360355025632613</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1293618815725253</v>
+        <v>0.215597673969216</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7818443645815026</v>
+        <v>1.10600863015123</v>
       </c>
       <c r="C15" t="n">
-        <v>24.85183388578974</v>
+        <v>51.86894586894587</v>
       </c>
       <c r="D15" t="n">
-        <v>11.44596991859301</v>
+        <v>24.14176502509836</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3763775182567269</v>
+        <v>0.5189952670046415</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>2.367989867140971</v>
+        <v>2.427350427350428</v>
       </c>
       <c r="H15" t="n">
-        <v>204.1249494704503</v>
+        <v>159.9159544159544</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.346237041231936</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05994110088288</v>
+        <v>0.4866946980708429</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2383957079486073</v>
+        <v>0.346788491593152</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4774528585861559</v>
+        <v>0.3527912511909469</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3124408362716704</v>
+        <v>0.2184078378258</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2429957896750604</v>
+        <v>0.094437816084864</v>
       </c>
       <c r="O15" t="n">
-        <v>0.23283243948384</v>
+        <v>0.047055803006016</v>
       </c>
       <c r="P15" t="n">
-        <v>0.028366684250016</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.184628105179728</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3114871248781824</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.019036687821696</v>
+        <v>0.063692516720448</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04852374833376</v>
+        <v>0.146699388169824</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9408161297244643</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C16" t="n">
-        <v>24.50976831129632</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D16" t="n">
-        <v>5.65070126515318</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2462101349381176</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F16" t="n">
-        <v>75.611</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>4.295795818970691</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H16" t="n">
-        <v>153.2494152046784</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2894355504895124</v>
+        <v>0.342561352732704</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2708776964985586</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3736999854153171</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3246318297882497</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M16" t="n">
-        <v>0.248121497834885</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1101631804083219</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1843812728912855</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0435103072769233</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1248487501246275</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2381802458653297</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1578245108620323</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2920707469781134</v>
+        <v>0.077801102370432</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02360318930504457</v>
+        <v>1.772360490084912</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1875</v>
+        <v>31.51724137931035</v>
       </c>
       <c r="D17" t="n">
-        <v>8.146472849046379</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006623660101278728</v>
+        <v>0.6435696586254769</v>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G17" t="n">
-        <v>4.145833333333334</v>
+        <v>6.708333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>229.4981060606061</v>
+        <v>217.6428571428571</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00166958392901328</v>
+        <v>0.555966817343424</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00481517523471341</v>
+        <v>0.793546778422944</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00937486973060064</v>
+        <v>0.8063062017608348</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006308739703534465</v>
+        <v>0.940218982420032</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00325425129844248</v>
+        <v>1.26549120129264</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00557115834073176</v>
+        <v>0.526258399996224</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007353969203507039</v>
+        <v>1.033311181954464</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01145894433340608</v>
+        <v>0.479773464617664</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01113874172840242</v>
+        <v>0.742454125765632</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008481361700538202</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S17" t="n">
-        <v>0.002225833267580496</v>
+        <v>0.334827455589312</v>
       </c>
       <c r="T17" t="n">
-        <v>0.004655038127442192</v>
+        <v>0.385733217059064</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6264987702228451</v>
+        <v>0.5758231144813912</v>
       </c>
       <c r="C18" t="n">
-        <v>26.86884889090772</v>
+        <v>22.39373085933292</v>
       </c>
       <c r="D18" t="n">
-        <v>6.775794880902549</v>
+        <v>6.317379681997894</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1768997305464098</v>
+        <v>0.1748945183422079</v>
       </c>
       <c r="F18" t="n">
-        <v>69</v>
+        <v>82.62944999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>3.758030291118526</v>
+        <v>3.880744284538797</v>
       </c>
       <c r="H18" t="n">
-        <v>175.967527239586</v>
+        <v>172.6530504899322</v>
       </c>
       <c r="I18" t="n">
-        <v>0.158202200961983</v>
+        <v>0.1725885622203202</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1407484475187042</v>
+        <v>0.170024119397971</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1445914118831406</v>
+        <v>0.1994977749951963</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1127242692822121</v>
+        <v>0.2162996356046705</v>
       </c>
       <c r="M18" t="n">
-        <v>0.335853024621785</v>
+        <v>0.2040510234742241</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3816511171661093</v>
+        <v>0.1755457014576395</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2361856882579123</v>
+        <v>0.1950825475569927</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1294692827990978</v>
+        <v>0.1380850449428263</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02267506604384797</v>
+        <v>0.1306000880202612</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1208866637443984</v>
+        <v>0.1362330361535847</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1173995948342028</v>
+        <v>0.09832030894180661</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1948868974127392</v>
+        <v>0.1124697659909165</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5254352233616634</v>
+        <v>0.1004125574500776</v>
       </c>
       <c r="C19" t="n">
-        <v>27.67625482625483</v>
+        <v>18.97916666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>17.68018018018018</v>
+        <v>2.603948240621035</v>
       </c>
       <c r="E19" t="n">
-        <v>0.37346109545842</v>
+        <v>0.01881172141605882</v>
       </c>
       <c r="F19" t="n">
-        <v>66.66666666666667</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88963963963964</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="H19" t="n">
-        <v>252.1445302445302</v>
+        <v>148.2444444444444</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.01760422313499055</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0182886052776896</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.007980729431834987</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03639960729350401</v>
+        <v>0.024918825008</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2007435891763827</v>
+        <v>0.043778411180532</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3579556587959572</v>
+        <v>0.0162976882458816</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1137606130779946</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0020388129552</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.001060182736704</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.01472349163727261</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6126368721526956</v>
+        <v>3.7935027621432</v>
       </c>
       <c r="C20" t="n">
-        <v>21.64075884279265</v>
+        <v>31.96428571428572</v>
       </c>
       <c r="D20" t="n">
-        <v>5.142023806985529</v>
+        <v>11.79137931034483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1379765004293749</v>
+        <v>1.148984136483669</v>
       </c>
       <c r="F20" t="n">
-        <v>85.69230769230769</v>
+        <v>92</v>
       </c>
       <c r="G20" t="n">
-        <v>4.673292210005583</v>
+        <v>4.821428571428571</v>
       </c>
       <c r="H20" t="n">
-        <v>165.2969546136079</v>
+        <v>246.7142857142857</v>
       </c>
       <c r="I20" t="n">
-        <v>0.158555223750234</v>
+        <v>0.68137128962784</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1646750763217333</v>
+        <v>1.04713433379072</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2302673228194151</v>
+        <v>0.273241712255904</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1876872328446243</v>
+        <v>0.2445107600912256</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1285930817412944</v>
+        <v>1.427465623251665</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2312292307637666</v>
+        <v>2.563677548521397</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1318085719748181</v>
+        <v>0.835865339562466</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06378967623980536</v>
+        <v>0.2691233100864</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3672243876201025</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1374467454048834</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1076906948651882</v>
+        <v>0.05137808647104</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1413958028945147</v>
+        <v>0.1078869476844889</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3585625666510041</v>
+        <v>0.8405368843419717</v>
       </c>
       <c r="C21" t="n">
-        <v>27.16946047929153</v>
+        <v>25.00964091496978</v>
       </c>
       <c r="D21" t="n">
-        <v>10.61159799177497</v>
+        <v>7.308467321452022</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1685194826557656</v>
+        <v>0.2708431945670212</v>
       </c>
       <c r="F21" t="n">
-        <v>67.42857142857143</v>
+        <v>74.93875</v>
       </c>
       <c r="G21" t="n">
-        <v>2.700260042008334</v>
+        <v>3.642277115726566</v>
       </c>
       <c r="H21" t="n">
-        <v>191.704895661999</v>
+        <v>188.6750239563246</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1364167003234978</v>
+        <v>0.112100534184412</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1467584993692797</v>
+        <v>0.1973626770037089</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1823046425687357</v>
+        <v>0.1157792862628716</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1339965450165806</v>
+        <v>0.1070732388598011</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03792168795952518</v>
+        <v>0.3220333275287915</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06066259101845495</v>
+        <v>0.4937929242433289</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1344604589729186</v>
+        <v>0.121005707634249</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04361146913421442</v>
+        <v>0.0336404137608</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04529421199972193</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05375802487213432</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01810655222563444</v>
+        <v>0.01047666973675267</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09370572689581733</v>
+        <v>0.02770495413197954</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6386504026699544</v>
+        <v>0.0665590877354592</v>
       </c>
       <c r="C22" t="n">
-        <v>19.03188920627018</v>
+        <v>19.69565217391304</v>
       </c>
       <c r="D22" t="n">
-        <v>3.331613107913082</v>
+        <v>4.310533126293996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1269449015650182</v>
+        <v>0.01769572094347538</v>
       </c>
       <c r="F22" t="n">
-        <v>95.23975</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>5.74452472383657</v>
+        <v>2.827586206896552</v>
       </c>
       <c r="H22" t="n">
-        <v>162.7375577568333</v>
+        <v>138.3611111111111</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1496779166324471</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1699282222968843</v>
+        <v>0.02830049669900661</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2298806188630418</v>
+        <v>0.0276576627732624</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2041422128292769</v>
+        <v>0.0232370308547328</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1336920257493647</v>
+        <v>0.0033137506565184</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2044301140417815</v>
+        <v>0.0066791512412352</v>
       </c>
       <c r="O22" t="n">
-        <v>0.091241471708015</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07897455427345207</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3791156821433566</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08926970171882517</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08549804872983088</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1235215454305704</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8578364617446821</v>
+        <v>1.205219093129974</v>
       </c>
       <c r="C23" t="n">
-        <v>22.78636090305687</v>
+        <v>32.64285714285715</v>
       </c>
       <c r="D23" t="n">
-        <v>7.60206481761018</v>
+        <v>8.113779375386518</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3521326014644586</v>
+        <v>0.3967162681829625</v>
       </c>
       <c r="F23" t="n">
-        <v>81.5</v>
+        <v>78</v>
       </c>
       <c r="G23" t="n">
-        <v>3.416217573986116</v>
+        <v>4.321428571428571</v>
       </c>
       <c r="H23" t="n">
-        <v>197.6043101479722</v>
+        <v>188.7297297297297</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06135158875461382</v>
+        <v>0.304435550470464</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08504407481540086</v>
+        <v>0.2765923557182784</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2353427681128472</v>
+        <v>0.23594162924052</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3742989393426737</v>
+        <v>0.2025030579622848</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2952637450565022</v>
+        <v>0.8552529088070401</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2717954524841381</v>
+        <v>0.8701904623618855</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4155242460480851</v>
+        <v>0.334272121774848</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1432592311100832</v>
+        <v>0.342031261364352</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1050946914016944</v>
+        <v>0.05012625531654774</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3553100501415696</v>
+        <v>0.175725288608688</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0664122932026848</v>
+        <v>0.168704975999616</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08209959968431201</v>
+        <v>0.331347881479104</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.369615232381027</v>
+        <v>0.6264987702228451</v>
       </c>
       <c r="C24" t="n">
-        <v>27.66666666666667</v>
+        <v>26.86884889090772</v>
       </c>
       <c r="D24" t="n">
-        <v>17.81313131313131</v>
+        <v>6.775794880902549</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.1768997305464098</v>
       </c>
       <c r="F24" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G24" t="n">
-        <v>1.727272727272727</v>
+        <v>3.758030291118526</v>
       </c>
       <c r="H24" t="n">
-        <v>248.6363636363636</v>
+        <v>175.967527239586</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.158202200961983</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.1407484475187042</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.1445914118831406</v>
       </c>
       <c r="L24" t="n">
-        <v>0.019817261924544</v>
+        <v>0.1127242692822121</v>
       </c>
       <c r="M24" t="n">
-        <v>0.577310276394432</v>
+        <v>0.335853024621785</v>
       </c>
       <c r="N24" t="n">
-        <v>0.889180259653793</v>
+        <v>0.3816511171661093</v>
       </c>
       <c r="O24" t="n">
-        <v>0.218452012106496</v>
+        <v>0.2361856882579123</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.1294692827990978</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.02267506604384797</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1208866637443984</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.1173995948342028</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.1948868974127392</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.59761383169472</v>
+        <v>0.1940662169464741</v>
       </c>
       <c r="C25" t="n">
-        <v>20.25581395348837</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>6.910492801771871</v>
+        <v>4.567507117507118</v>
       </c>
       <c r="E25" t="n">
-        <v>0.49635734530535</v>
+        <v>0.04452851379583939</v>
       </c>
       <c r="F25" t="n">
-        <v>89.583</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>2.930232558139535</v>
+        <v>3.205128205128205</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5116279069767</v>
+        <v>162.1025641025641</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8005544698089599</v>
+        <v>0.09610593577548218</v>
       </c>
       <c r="J25" t="n">
-        <v>0.55486294575768</v>
+        <v>0.04429647355244875</v>
       </c>
       <c r="K25" t="n">
-        <v>0.244902212178624</v>
+        <v>0.06214840134069849</v>
       </c>
       <c r="L25" t="n">
-        <v>0.434022501902976</v>
+        <v>0.03990500636781159</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.02798862036769039</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04403835983232</v>
+        <v>0.09058067852823805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.1208955733570133</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.02747015023318272</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.006605753974848</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.02044334060682703</v>
       </c>
       <c r="S25" t="n">
-        <v>0.44160688609632</v>
+        <v>0.02620499883404974</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7420226866370477</v>
+        <v>0.04369269365871607</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.20978769472126</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37.45833333333334</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27.02083333333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.407769387083184</v>
+      </c>
+      <c r="F26" t="n">
+        <v>87.75500000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.261904761904762</v>
+      </c>
+      <c r="H26" t="n">
+        <v>185.34375</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2676675976363873</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3834150867290016</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.517559464720704</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5299540167423865</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.165248702608896</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0406620855785088</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.412652720398976</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.08685343189152001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.114499735564032</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.298604545418592</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.142941176289072</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.3912741546314008</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5018416888711366</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26.01611242439731</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11.02757047934685</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1920322026615707</v>
+      </c>
+      <c r="F27" t="n">
+        <v>72.6938</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.142105907658233</v>
+      </c>
+      <c r="H27" t="n">
+        <v>167.2770237030412</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1204560725289306</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1579984284914142</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2054445688532321</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.250547942785841</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06871257189562054</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02226519667942085</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4245976812549732</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04506807454822165</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.06401591323140196</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.137568135228377</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.05629490643437603</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1353742500375979</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07398773210418941</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.546195801552945</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03186377183075512</v>
+      </c>
+      <c r="F28" t="n">
+        <v>48</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.458333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>158.6279069767442</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0333536207384352</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02608160740271215</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04666312763084499</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.04926546848686177</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.00259826323010712</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.008477384267721867</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0167957411249376</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.015291097164</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02516731100028505</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.00122328777312</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.000489315109248</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.006505444377452374</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6120219936898734</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.629947916666667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1216763417207833</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>246.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0077311787261184</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.08703136465851927</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2851239141588096</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.134989805763792</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1629500866314048</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3256729510741473</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1670847993045504</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.05037721465666909</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.04167270947722487</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1160268064674768</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.09569780249117761</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.022508495025408</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1254268662002601</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20.60127997364954</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.991032099085173</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02392622644113934</v>
+      </c>
+      <c r="F30" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.207438405797101</v>
+      </c>
+      <c r="H30" t="n">
+        <v>223.0073326745718</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001993508492522501</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01310276246666816</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05251868082508545</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.02781639635164716</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04187433644428174</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05046204006410036</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.03593566132020642</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01484004792880949</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01727156382559479</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.02840766459379795</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01765319177702402</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.009037892686552227</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01314054257940176</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.996848595848596</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001460736763014261</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="H31" t="n">
+        <v>190.6521739130435</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0008903276610886302</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.002607618468981312</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0045191988162804</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.002969829779053864</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.001299576446970938</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0009010737736801919</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.001258683770144386</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.003054815501605232</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.483349688484801e-05</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
+        <v>3.465916781825434</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60.86666666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.09055555555556</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.400869468884829</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.959183673469388</v>
+      </c>
+      <c r="H32" t="n">
+        <v>255.9387755102041</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02901312387767808</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.039879181403712</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.401788869081264</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9841961778636961</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.479933547920576</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.094054215933056</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.619947571323968</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.415180848463424</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.960403230676512</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.7198314572147329</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.670239370892448</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.142635354345792</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>0.1662529415832263</v>
       </c>
-      <c r="C26" t="n">
-        <v>25.51162053006384</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.117343004465774</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.06738751790143749</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="C33" t="n">
+        <v>25.51162053006383</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.117343004465772</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0673875179014375</v>
+      </c>
+      <c r="F33" t="n">
         <v>76.5524358974359</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>4.037051898380052</v>
       </c>
-      <c r="H26" t="n">
-        <v>230.5358489019252</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.002562226606201199</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H33" t="n">
+        <v>230.5358489019253</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.002562226606201198</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.005071582753826463</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.02987906725401348</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K33" t="n">
+        <v>0.02987906725401349</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.0434593484467353</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.06069723956126669</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.06544850225387677</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="M33" t="n">
+        <v>0.06069723956126671</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06544850225387679</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.06928092790754518</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P33" t="n">
         <v>0.04419095138655339</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q33" t="n">
         <v>0.04005574081340153</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R33" t="n">
         <v>0.02848261055361696</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.02071072986541984</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="S33" t="n">
+        <v>0.02071072986541985</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.009684699198481151</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.000632139875894146</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.94614114043886</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001286619316597412</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="H34" t="n">
+        <v>201.725</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.000119759872988448</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000397369742000868</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.00029830746124512</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2416898095548996</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20.59090909090909</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.978517316017316</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.05243789563642613</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>156.38</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05192386101597046</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04642621756545024</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.08728714301108073</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.04058740064078147</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.09772030494273599</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04756792733520024</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.05468218674623707</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.059207128219008</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.105569734820256</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.034313222036016</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.04691855491507884</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.05142701798196481</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1715028213644416</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19.26769433465086</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.579844151538525</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03590134468587871</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.452753623188406</v>
+      </c>
+      <c r="H36" t="n">
+        <v>151.7215283267457</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03929561593846622</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.04087648941422534</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.05263799841353112</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0354949041381982</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.06180079491350322</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02799506811366088</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.03669224491300702</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.03213014267610603</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.04788672122590775</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.02239358364379966</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.03732800724076044</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.04588983872737602</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.08257081260580626</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.843597954333249</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02663167771330224</v>
+      </c>
+      <c r="F37" t="n">
+        <v>88</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>145.2391304347826</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01756209493574513</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.03180222000039169</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0256360340986848</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.02642445506147803</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0370184355685728</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.009235822687056</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.007135845343200001</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.01876034128856832</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0127507362218208</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0209706475392</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.03510410417455054</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.772360490084912</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.199583333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6435696586254769</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="H38" t="n">
+        <v>169.1794871794872</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3968771027400627</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.793546778422944</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8063062017608348</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.940218982420032</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.26549120129264</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.3425205764736</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.21040549697664</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.435245789676096</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.340318658481984</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.594844067809152</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.14740617666096</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.3029105183799744</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5413212374744583</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.45591408387886</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.330436257762343</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1589281347441329</v>
+      </c>
+      <c r="F39" t="n">
+        <v>88.60609090909091</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.850839061819232</v>
+      </c>
+      <c r="H39" t="n">
+        <v>154.4887763346573</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1051589967016333</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1821570789663401</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2191911139001633</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.2371673005536669</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2321390411079619</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1045484690706224</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.04727407955664396</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.05339529789406861</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.07083521432864383</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1303060897462782</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.05360355025632615</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1293618815725253</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1444147544302841</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.528433747109444</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01237280995147974</v>
+      </c>
+      <c r="F40" t="n">
+        <v>80</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>147.4186046511628</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.02612170080580244</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03102854518375306</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0264384399626183</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.02717706302928443</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.03521623082853731</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.002986860979367971</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.01003867586246065</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.02772697454187451</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.895962542573363</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.41025641025641</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.997008547008546</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6705803186703563</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.448979591836734</v>
+      </c>
+      <c r="H41" t="n">
+        <v>186.5681818181818</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.80968058494176</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.58279468324392</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.088236802967552</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.07710488423216</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4911500409076801</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.1427924159152</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.51745072802976</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.27972513745344</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.62517556111552</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3409914667572</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.3013051884254031</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.62724080566728</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5073278038809614</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19.75314924331915</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.660762481996548</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1079327300027508</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.53333333333333</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.86140115258948</v>
+      </c>
+      <c r="H42" t="n">
+        <v>168.6565836458954</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1291362707973906</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1213261122143846</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1786291473755786</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1535654941492967</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1048385889461587</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.223875607522409</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.07469022175820784</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.05729159960597983</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3525704876415549</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.1117145670482531</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.08018661381321737</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.09958890316587371</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0647058067591824</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.078686780459068</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.015024844612394</v>
+      </c>
+      <c r="F43" t="n">
+        <v>78</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0166591406569392</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0143097485282304</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01895851390781376</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01519899079049449</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0073117657753344</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00443441817756</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0108648342382608</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0084379672172544</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.044894661273504</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.02808913384638144</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0115342444918848</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0115827876574848</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.060074734720427</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32.32142857142857</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.65476190476191</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7502027170564488</v>
+      </c>
+      <c r="F44" t="n">
+        <v>74</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="H44" t="n">
+        <v>258.3571428571428</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.04974703610688001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4504461267795097</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7339038539347621</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.180530091139776</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0061164388656</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.003180548210112</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5254352233616634</v>
+      </c>
+      <c r="C45" t="n">
+        <v>27.67625482625483</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17.68018018018018</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.37346109545842</v>
+      </c>
+      <c r="F45" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.88963963963964</v>
+      </c>
+      <c r="H45" t="n">
+        <v>252.1445302445302</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.03639960729350401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2007435891763827</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.3579556587959572</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1137606130779946</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0020388129552</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.001060182736704</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1699705934131392</v>
+      </c>
+      <c r="C46" t="n">
+        <v>24.62162162162162</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.34523809523809</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1003305680433792</v>
+      </c>
+      <c r="F46" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.607142857142857</v>
+      </c>
+      <c r="H46" t="n">
+        <v>248.1621621621622</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0284781393582336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.053203956739808</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1246463516021655</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.02832005293832271</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.369615232381027</v>
+      </c>
+      <c r="C47" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17.81313131313131</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9587684733797062</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="H47" t="n">
+        <v>248.6363636363636</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.019817261924544</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.577310276394432</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.889180259653793</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.218452012106496</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.369615232381027</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17.81313131313131</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9587684733797062</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="H48" t="n">
+        <v>248.6363636363636</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.019817261924544</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.577310276394432</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.889180259653793</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.218452012106496</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.369615232381027</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17.81313131313131</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9587684733797062</v>
+      </c>
+      <c r="F49" t="n">
+        <v>66</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="H49" t="n">
+        <v>248.6363636363636</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.019817261924544</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.577310276394432</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.889180259653793</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.218452012106496</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.446808510638299</v>
+      </c>
+      <c r="H50" t="n">
+        <v>118.6122448979592</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.05642575812433517</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.146916861551712</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.141228573406704</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.06373329297955201</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.027156988563264</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.089352434056608</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8133265071849793</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19.20746195558877</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.938977718147084</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1889305378173587</v>
+      </c>
+      <c r="F51" t="n">
+        <v>94.39574999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.419657092591284</v>
+      </c>
+      <c r="H51" t="n">
+        <v>108.193261345442</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.322249642474971</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.2365229618406181</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1395962327792728</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.142448948589888</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.02043695375697979</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.049634901394344</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.041545910994588</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.0186041682162</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.011254247512704</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.03875133696234093</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.2451821026760222</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.3288233355844431</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4814912729799176</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.06382978723404</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.105275988786627</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.05628938726160604</v>
+      </c>
+      <c r="F52" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H52" t="n">
+        <v>91.8936170212766</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.08219054673280377</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.09714592212052967</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.061563089856128</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0199314354500352</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.12599864063136</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.1409613816036278</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.895962542573363</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.53324829931973</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6705803186703563</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.454545454545454</v>
+      </c>
+      <c r="H53" t="n">
+        <v>192.0357142857143</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.80968058494176</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.58279468324392</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.088236802967552</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.07710488423216</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4911500409076801</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.1427924159152</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.51745072802976</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.27972513745344</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.62517556111552</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.3409914667572</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.3013051884254031</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.62724080566728</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6126368721526955</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21.64075884279265</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.142023806985529</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1379765004293749</v>
+      </c>
+      <c r="F54" t="n">
+        <v>85.69230769230769</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.673292210005583</v>
+      </c>
+      <c r="H54" t="n">
+        <v>165.2969546136079</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.158555223750234</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1646750763217333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2302673228194151</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.1876872328446243</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1285930817412944</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2312292307637666</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.1318085719748181</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.06378967623980536</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3672243876201024</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1374467454048834</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.1076906948651881</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1413958028945147</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1752101903571462</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.017634448884449</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.04801074204912677</v>
+      </c>
+      <c r="F55" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.769230769230769</v>
+      </c>
+      <c r="H55" t="n">
+        <v>144.5681818181818</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.03604115679180749</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.05222733601800293</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.07924844495673464</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.04175619416278778</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0319033451229696</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01056920635975702</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.024221097907776</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0269367967641024</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.0280649399326464</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01790448467930182</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1202757813101551</v>
+      </c>
+      <c r="C56" t="n">
+        <v>39.34782608695652</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20.95652173913043</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.06381626380242449</v>
+      </c>
+      <c r="F56" t="n">
+        <v>46</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.130434782608696</v>
+      </c>
+      <c r="H56" t="n">
+        <v>247.6086956521739</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.02315794962495535</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0515784726586368</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06137506599470401</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0453734910589824</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0060919731101376</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1202757813101551</v>
+      </c>
+      <c r="C57" t="n">
+        <v>39.34782608695652</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20.95652173913043</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06381626380242449</v>
+      </c>
+      <c r="F57" t="n">
+        <v>46</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.130434782608696</v>
+      </c>
+      <c r="H57" t="n">
+        <v>247.6086956521739</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.02315794962495535</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0515784726586368</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06137506599470401</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0453734910589824</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0060919731101376</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1202757813101551</v>
+      </c>
+      <c r="C58" t="n">
+        <v>39.34782608695652</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20.95652173913043</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.06381626380242449</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.130434782608696</v>
+      </c>
+      <c r="H58" t="n">
+        <v>247.6086956521739</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.02315794962495535</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0515784726586368</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06137506599470401</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0453734910589824</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0060919731101376</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.875516030505864</v>
+      </c>
+      <c r="C59" t="n">
+        <v>26.55882352941176</v>
+      </c>
+      <c r="D59" t="n">
+        <v>13.17401960784314</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9848941714754174</v>
+      </c>
+      <c r="F59" t="n">
+        <v>96</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H59" t="n">
+        <v>221.9714285714286</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1467278079867753</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1725994664305314</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.49700434667904</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.116702177583805</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.7881309498274036</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.5231594043043201</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8312240418350401</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.5082026724649729</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.270387374118624</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8210707533181442</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.09991814530844161</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.163675904043456</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.857836461744682</v>
+      </c>
+      <c r="C60" t="n">
+        <v>22.78636090305687</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.60206481761018</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3521326014644586</v>
+      </c>
+      <c r="F60" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.416217573986116</v>
+      </c>
+      <c r="H60" t="n">
+        <v>197.6043101479723</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.06135158875461382</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.08504407481540086</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.2353427681128472</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3742989393426737</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.2952637450565022</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2717954524841381</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4155242460480851</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.1432592311100832</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1050946914016944</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3553100501415696</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.0664122932026848</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.08209959968431201</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.321357697998624</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18.97916666666667</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.070179473304472</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0882293151057036</v>
+      </c>
+      <c r="F61" t="n">
+        <v>68</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.911764705882353</v>
+      </c>
+      <c r="H61" t="n">
+        <v>174.9347826086957</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1179012647912237</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.05345767568534401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.078548667120672</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.07301915925732655</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.08538548656377601</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.033599637501696</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0786818695670784</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.04220342817264</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H62" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C63" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H63" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H64" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.771538168859648</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.29032258064516</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.689938556067587</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5551907437313957</v>
+      </c>
+      <c r="F65" t="n">
+        <v>90</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.578947368421052</v>
+      </c>
+      <c r="H65" t="n">
+        <v>163</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.429491806446976</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5440776252246721</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.7275789464444927</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.6311743085929158</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7400891027376</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2354828963256</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.4025399677739614</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.08114475561696001</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.202087140119424</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.476592916407552</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.27462810506544</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.432939018446784</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9408161297244642</v>
+      </c>
+      <c r="C66" t="n">
+        <v>24.50976831129632</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.65070126515318</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2462101349381176</v>
+      </c>
+      <c r="F66" t="n">
+        <v>75.611</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.295795818970691</v>
+      </c>
+      <c r="H66" t="n">
+        <v>153.2494152046784</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2894355504895124</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2708776964985586</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.373699985415317</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.3246318297882497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.248121497834885</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1101631804083219</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.1843812728912855</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0435103072769233</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1248487501246275</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2381802458653297</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.1578245108620323</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.2920707469781133</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3440107633972189</v>
+      </c>
+      <c r="C67" t="n">
+        <v>19.84444444444444</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.597635478556532</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.08756721701743339</v>
+      </c>
+      <c r="F67" t="n">
+        <v>62</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.488888888888889</v>
+      </c>
+      <c r="H67" t="n">
+        <v>141</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.172707845434992</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.111028656507804</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1260653654189847</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.1544918358391089</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0319033451229696</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0511823604273408</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.04831986703824</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.01678350824720693</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.06449173139888639</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.119454051045168</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.117430205882539</v>
+      </c>
+      <c r="C68" t="n">
+        <v>31.3448275862069</v>
+      </c>
+      <c r="D68" t="n">
+        <v>18.50574712643678</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5373867208264009</v>
+      </c>
+      <c r="F68" t="n">
+        <v>76</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.861111111111111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>255.4473684210526</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3945949959847237</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4104375136372224</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.6554820720294459</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.4546600862165534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.09818923192243201</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1647744164637185</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.364662085167072</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0860573538483973</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.07954880829324605</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1027336644470551</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.04280039260592256</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.2507739934896</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3585625666510041</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27.16946047929153</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.61159799177497</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1685194826557656</v>
+      </c>
+      <c r="F69" t="n">
+        <v>67.42857142857143</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.700260042008334</v>
+      </c>
+      <c r="H69" t="n">
+        <v>191.704895661999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1364167003234978</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1467584993692797</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1823046425687357</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.1339965450165806</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.03792168795952518</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06066259101845496</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.1344604589729186</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.04361146913421442</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.04529421199972193</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.05375802487213432</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.01810655222563444</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.09370572689581733</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.06425658830472</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23.92105263157895</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.01550675404842</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01733317631422562</v>
+      </c>
+      <c r="F70" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.758620689655172</v>
+      </c>
+      <c r="H70" t="n">
+        <v>149.7878787878788</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0109606584471552</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0245717737360704</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.03392666309971008</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0068442950906064</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.023840519489472</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.01621857171198371</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.020061919479168</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.024710413017024</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.0008073699302592</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.009465528946675199</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.633151397396263</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21.11627906976744</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.443041712809155</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5975840470743085</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7.142857142857143</v>
+      </c>
+      <c r="H71" t="n">
+        <v>177.0666666666667</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6637945758351158</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5525183108592001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9970189959887071</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.98588256743664</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.4616831971963483</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.11292003181184</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.4373253788904</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.45016990050816</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.131456615884288</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2955463259857921</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.2907929792102401</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.50413048338912</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6386504026699545</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19.03188920627018</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.331613107913082</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1269449015650182</v>
+      </c>
+      <c r="F72" t="n">
+        <v>95.23975</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.744524723836569</v>
+      </c>
+      <c r="H72" t="n">
+        <v>162.7375577568333</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1496779166324471</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1699282222968842</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2298806188630418</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2041422128292769</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1336920257493648</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.2044301140417815</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.091241471708015</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.07897455427345207</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3791156821433565</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.08926970171882517</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.08549804872983087</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1235215454305703</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.08708039081453323</v>
+      </c>
+      <c r="C73" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.464971612312038</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01166099089610491</v>
+      </c>
+      <c r="F73" t="n">
+        <v>86</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H73" t="n">
+        <v>149.2173913043478</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.01736867155138364</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.02713348396248057</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.02917024839609227</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01636966058365404</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.02083089176543767</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.009205087581756408</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.01673502156819916</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.004303875896628511</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.006666918363504</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.004660590494723543</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.005806496374031628</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.01982809028668391</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F74" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H74" t="n">
+        <v>110.5116279069767</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F75" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H75" t="n">
+        <v>110.5116279069767</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F76" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H76" t="n">
+        <v>110.5116279069767</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tables/aq_hmf_metrics_outlet_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,31 +547,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.518088949456595</v>
+        <v>2.229662158310362</v>
       </c>
       <c r="C2" t="n">
-        <v>178</v>
+        <v>151.8333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>114.59</v>
+        <v>52.90277777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>2.033757351491249</v>
+        <v>1.050532015580561</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>5.066666666666666</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="H2" t="n">
         <v>233.7777777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.320287321197144</v>
+        <v>0.3054977720201232</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3088801627128</v>
+        <v>0.2184547305237696</v>
       </c>
       <c r="K2" t="n">
         <v>0.4241077545018384</v>
@@ -580,22 +580,22 @@
         <v>0.302641395069888</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25291474709256</v>
+        <v>0.134724760079616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.322703314549056</v>
+        <v>0.1866492484226496</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6725636176613761</v>
+        <v>0.4595280519725281</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6469071954331392</v>
+        <v>0.5942568896780543</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.500406251724288</v>
+        <v>0.4011813028206144</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6344337377732256</v>
+        <v>0.406457750748672</v>
       </c>
       <c r="S2" t="n">
         <v>0.468274559550336</v>
@@ -616,61 +616,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.094833834706405</v>
+        <v>0.8909283006129577</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0519841269841</v>
+        <v>100.8055555555555</v>
       </c>
       <c r="D3" t="n">
-        <v>48.85834467120181</v>
+        <v>47.16280864197531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6321424804834876</v>
+        <v>0.4661032501821049</v>
       </c>
       <c r="F3" t="n">
-        <v>28.60057142857143</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>3.547222222222222</v>
+        <v>3.097222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>191.0714285714286</v>
+        <v>190.0277777777778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.126547814062619</v>
+        <v>0.1054275276166308</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1686761469070399</v>
+        <v>0.1629302082050916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1909192147822072</v>
+        <v>0.2717131122427428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1605775865689228</v>
+        <v>0.2207190507547644</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1266100515107251</v>
+        <v>0.1135441439319298</v>
       </c>
       <c r="N3" t="n">
-        <v>0.136415926300055</v>
+        <v>0.09713384039617273</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2374803427368023</v>
+        <v>0.1282552667706072</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2644020600519427</v>
+        <v>0.1738618135676352</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2069018988537766</v>
+        <v>0.1248334590274632</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2356455236972665</v>
+        <v>0.1231208561450952</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1687270340140647</v>
+        <v>0.1258289094528396</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0952702342885728</v>
+        <v>0.09409121788248001</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03983579546402535</v>
+        <v>0.1608963223812</v>
       </c>
       <c r="C4" t="n">
-        <v>20.26666666666667</v>
+        <v>50.27777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>3.725511463844797</v>
+        <v>42.52777777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00672072926083699</v>
+        <v>0.1453257945749512</v>
       </c>
       <c r="F4" t="n">
-        <v>10.204</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>1.388888888888889</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01537200891242208</v>
+        <v>0.0200986181123616</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01445798925899436</v>
+        <v>0.054252812737872</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00115784187725808</v>
+        <v>0.0929034637065792</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0699679829965536</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.05744070067462272</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002019729665939328</v>
+        <v>0.0122926829112192</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2416898095548996</v>
+        <v>0.3632736535445808</v>
       </c>
       <c r="C35" t="n">
-        <v>20.59090909090909</v>
+        <v>22.375</v>
       </c>
       <c r="D35" t="n">
-        <v>6.978517316017316</v>
+        <v>7.855952380952381</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05243789563642613</v>
+        <v>0.134010127012919</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
@@ -2842,25 +2842,25 @@
         <v>9.380000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>156.38</v>
+        <v>158.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05192386101597046</v>
+        <v>0.08962621751059201</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04642621756545024</v>
+        <v>0.11000852188272</v>
       </c>
       <c r="K35" t="n">
-        <v>0.08728714301108073</v>
+        <v>0.111839084657496</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04058740064078147</v>
+        <v>0.10875610821024</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09772030494273599</v>
+        <v>0.154348334773416</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04756792733520024</v>
+        <v>0.1093129954060032</v>
       </c>
       <c r="O35" t="n">
         <v>0.05468218674623707</v>
@@ -2869,16 +2869,16 @@
         <v>0.059207128219008</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.105569734820256</v>
+        <v>0.340318658481984</v>
       </c>
       <c r="R35" t="n">
-        <v>0.034313222036016</v>
+        <v>0.250040020825728</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04691855491507884</v>
+        <v>0.07749528042715199</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05142701798196481</v>
+        <v>0.154638865619532</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2893,61 +2893,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1715028213644416</v>
+        <v>0.2194455294094764</v>
       </c>
       <c r="C36" t="n">
-        <v>19.26769433465086</v>
+        <v>20.04452075098814</v>
       </c>
       <c r="D36" t="n">
-        <v>4.579844151538525</v>
+        <v>5.39887120889199</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03590134468587871</v>
+        <v>0.06042854026763878</v>
       </c>
       <c r="F36" t="n">
-        <v>93.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="G36" t="n">
-        <v>5.452753623188406</v>
+        <v>4.795815217391304</v>
       </c>
       <c r="H36" t="n">
-        <v>151.7215283267457</v>
+        <v>153.3411462450593</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03929561593846622</v>
+        <v>0.05187826633149767</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04087648941422534</v>
+        <v>0.05815949753134901</v>
       </c>
       <c r="K36" t="n">
-        <v>0.05263799841353112</v>
+        <v>0.06743826997452235</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0354949041381982</v>
+        <v>0.05381020515620864</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06180079491350322</v>
+        <v>0.08493767987848141</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02799506811366088</v>
+        <v>0.04832454993674646</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03669224491300702</v>
+        <v>0.03693849953777927</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03213014267610603</v>
+        <v>0.02409760700707952</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04788672122590775</v>
+        <v>0.1209947055399268</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02239358364379966</v>
+        <v>0.07930519293928176</v>
       </c>
       <c r="S36" t="n">
-        <v>0.03732800724076044</v>
+        <v>0.04736982553735833</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04588983872737602</v>
+        <v>0.07307709545041502</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         <v>0.02663167771330224</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.825</v>
       </c>
       <c r="H37" t="n">
         <v>145.2391304347826</v>
@@ -3241,10 +3241,10 @@
         <v>2.895962542573363</v>
       </c>
       <c r="C41" t="n">
-        <v>23.41025641025641</v>
+        <v>31.75</v>
       </c>
       <c r="D41" t="n">
-        <v>9.997008547008546</v>
+        <v>13.53324829931973</v>
       </c>
       <c r="E41" t="n">
         <v>0.6705803186703563</v>
@@ -3256,7 +3256,7 @@
         <v>8.448979591836734</v>
       </c>
       <c r="H41" t="n">
-        <v>186.5681818181818</v>
+        <v>192.0357142857143</v>
       </c>
       <c r="I41" t="n">
         <v>0.80968058494176</v>
@@ -3307,61 +3307,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5073278038809614</v>
+        <v>0.4781141615082807</v>
       </c>
       <c r="C42" t="n">
-        <v>19.75314924331915</v>
+        <v>20.50812633768803</v>
       </c>
       <c r="D42" t="n">
-        <v>4.660762481996548</v>
+        <v>5.190747141310813</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1079327300027508</v>
+        <v>0.1096580564755347</v>
       </c>
       <c r="F42" t="n">
-        <v>92.53333333333333</v>
+        <v>90.11764705882354</v>
       </c>
       <c r="G42" t="n">
-        <v>4.86140115258948</v>
+        <v>4.678127067410885</v>
       </c>
       <c r="H42" t="n">
-        <v>168.6565836458954</v>
+        <v>169.7191398861797</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1291362707973906</v>
+        <v>0.1185326326060638</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1213261122143846</v>
+        <v>0.1153965338333724</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1786291473755786</v>
+        <v>0.1685412954115508</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1535654941492967</v>
+        <v>0.1494462963906715</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1048385889461587</v>
+        <v>0.1060119257720372</v>
       </c>
       <c r="N42" t="n">
-        <v>0.223875607522409</v>
+        <v>0.2065647790308479</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07469022175820784</v>
+        <v>0.07404980166583089</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05729159960597983</v>
+        <v>0.05064582044988417</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3525704876415549</v>
+        <v>0.3322384945276797</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1117145670482531</v>
+        <v>0.1104858600898771</v>
       </c>
       <c r="S42" t="n">
-        <v>0.08018661381321737</v>
+        <v>0.08032028418206012</v>
       </c>
       <c r="T42" t="n">
-        <v>0.09958890316587371</v>
+        <v>0.09616970796627654</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0647058067591824</v>
+        <v>0.04569480268510385</v>
       </c>
       <c r="C43" t="n">
         <v>17.96</v>
@@ -3385,10 +3385,10 @@
         <v>2.078686780459068</v>
       </c>
       <c r="E43" t="n">
-        <v>0.015024844612394</v>
+        <v>0.01008605005431892</v>
       </c>
       <c r="F43" t="n">
-        <v>78</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G43" t="n">
         <v>2.230769230769231</v>
@@ -3397,7 +3397,7 @@
         <v>153.0666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0166591406569392</v>
+        <v>0.01115801554121856</v>
       </c>
       <c r="J43" t="n">
         <v>0.0143097485282304</v>
@@ -3406,7 +3406,7 @@
         <v>0.01895851390781376</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01519899079049449</v>
+        <v>0.0138953840666688</v>
       </c>
       <c r="M43" t="n">
         <v>0.0073117657753344</v>
@@ -3415,22 +3415,22 @@
         <v>0.00443441817756</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0108648342382608</v>
+        <v>0.01084322282093568</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0084379672172544</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.044894661273504</v>
+        <v>0.013918296440832</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02808913384638144</v>
+        <v>0.0087723325419072</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0115342444918848</v>
+        <v>0.009000679592889601</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0115827876574848</v>
+        <v>0.008610198368803199</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4687,46 +4687,46 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.331787555925095</v>
       </c>
       <c r="C62" t="n">
-        <v>45.7</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="D62" t="n">
-        <v>17.21071428571428</v>
+        <v>16.96123188405797</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.14418635914045</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G62" t="n">
-        <v>2.85</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="H62" t="n">
-        <v>200.9</v>
+        <v>234.2083333333333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1844391751792157</v>
+        <v>0.05325216333945998</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2144138032465679</v>
+        <v>0.15229932775344</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.1597482093011461</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.13502038795812</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.111456807228396</v>
       </c>
       <c r="N62" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.1316746958986368</v>
       </c>
       <c r="O62" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0.02130110999333882</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -4735,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>0.022508495025408</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>0.007095069084096</v>
       </c>
       <c r="T62" t="n">
-        <v>0.03063112583892587</v>
+        <v>0.00571642376378984</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4756,46 +4756,46 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.1624667951594629</v>
       </c>
       <c r="C63" t="n">
-        <v>45.7</v>
+        <v>35.88518667841056</v>
       </c>
       <c r="D63" t="n">
-        <v>17.21071428571428</v>
+        <v>13.12873620160402</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.06549720249553442</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="G63" t="n">
-        <v>2.85</v>
+        <v>3.039693360797607</v>
       </c>
       <c r="H63" t="n">
-        <v>200.9</v>
+        <v>217.7124530195801</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1844391751792157</v>
+        <v>0.02572716903778226</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2144138032465679</v>
+        <v>0.04106093176089142</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.05940363528490086</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.06043987072978194</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.06168808870626282</v>
       </c>
       <c r="N63" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.05523336170208643</v>
       </c>
       <c r="O63" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0.006739228262981803</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -4804,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.003751415837568</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.001182511514016</v>
       </c>
       <c r="T63" t="n">
-        <v>0.03063112583892587</v>
+        <v>0.002290198592576173</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4825,46 +4825,46 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.0530172920870208</v>
       </c>
       <c r="C64" t="n">
-        <v>45.7</v>
+        <v>29.48387096774194</v>
       </c>
       <c r="D64" t="n">
-        <v>17.21071428571428</v>
+        <v>7.425576036866358</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.01884823001379164</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G64" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="H64" t="n">
-        <v>200.9</v>
+        <v>194.16</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1844391751792157</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2144138032465679</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.0047891716317648</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.0091746582984</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.030119092528176</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.0232302348115488</v>
       </c>
       <c r="O64" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.03063112583892587</v>
+        <v>0</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -559,13 +559,13 @@
         <v>1.050532015580561</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>4.111111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7777777777778</v>
+        <v>178.2222222222222</v>
       </c>
       <c r="I2" t="n">
         <v>0.3054977720201232</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8909283006129577</v>
+        <v>1.134272293356877</v>
       </c>
       <c r="C3" t="n">
-        <v>100.8055555555555</v>
+        <v>117.6481481481481</v>
       </c>
       <c r="D3" t="n">
-        <v>47.16280864197531</v>
+        <v>48.70781893004116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4661032501821049</v>
+        <v>0.5730290687178228</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>3.097222222222222</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>190.0277777777778</v>
+        <v>175.4444444444444</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1054275276166308</v>
+        <v>0.1405700368221744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1629302082050916</v>
+        <v>0.2105407382360016</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2717131122427428</v>
+        <v>0.3441998787443664</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2207190507547644</v>
+        <v>0.2633242464374928</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1135441439319298</v>
+        <v>0.1280695309103885</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09713384039617273</v>
+        <v>0.1088485538148087</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1282552667706072</v>
+        <v>0.1669094613904032</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1738618135676352</v>
+        <v>0.2318157514235136</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1248334590274632</v>
+        <v>0.1664446120366176</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1231208561450952</v>
+        <v>0.1641611415267936</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1258289094528396</v>
+        <v>0.1677718792704528</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09409121788248001</v>
+        <v>0.12545495717664</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1608963223812</v>
+        <v>0.5762827146650111</v>
       </c>
       <c r="C4" t="n">
-        <v>50.27777777777778</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>42.52777777777778</v>
+        <v>44.29012345679013</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1453257945749512</v>
+        <v>0.1593826472339868</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>1.388888888888889</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="H4" t="n">
         <v>173.7777777777778</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.03891890050181281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0200986181123616</v>
+        <v>0.2052493390129392</v>
       </c>
       <c r="K4" t="n">
-        <v>0.054252812737872</v>
+        <v>0.2631944420126784</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0929034637065792</v>
+        <v>0.19307558685744</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0699679829965536</v>
+        <v>0.1148585666441472</v>
       </c>
       <c r="N4" t="n">
         <v>0.05744070067462272</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0122926829112192</v>
+        <v>0.0195542550533232</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.036882126359568</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0333305141916096</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.0420688665175968</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.0165633164480448</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0284659064805024</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03011143241664432</v>
+        <v>2.229662158310362</v>
       </c>
       <c r="C5" t="n">
-        <v>37.875</v>
+        <v>151.8333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>12.63216036414566</v>
+        <v>52.90277777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01010423017981237</v>
+        <v>1.050532015580561</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.046511627906977</v>
       </c>
       <c r="H5" t="n">
-        <v>230.0416666666667</v>
+        <v>266.7142857142857</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00249428376939168</v>
+        <v>0.3054977720201232</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005151020155053697</v>
+        <v>0.2184547305237696</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01390307330409984</v>
+        <v>0.3452974397185824</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01145046287151245</v>
+        <v>0.302641395069888</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0046393188795576</v>
+        <v>0.134724760079616</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00687834326695824</v>
+        <v>0.1866492484226496</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01242982706267232</v>
+        <v>0.4595280519725281</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01679900322566592</v>
+        <v>0.5942568896780543</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01707159251777616</v>
+        <v>0.4011813028206144</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01100854142570304</v>
+        <v>0.406457750748672</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002909712297143232</v>
+        <v>0.468274559550336</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00777215886651792</v>
+        <v>0.3153717431621568</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02360318930504457</v>
+        <v>0.2533695492829026</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1875</v>
+        <v>46.71405202431463</v>
       </c>
       <c r="D6" t="n">
-        <v>8.146472849046379</v>
+        <v>19.39041195433829</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006623660101278728</v>
+        <v>0.1257140987814921</v>
       </c>
       <c r="F6" t="n">
-        <v>68</v>
+        <v>51.91252941176471</v>
       </c>
       <c r="G6" t="n">
-        <v>4.145833333333334</v>
+        <v>3.202303839145866</v>
       </c>
       <c r="H6" t="n">
-        <v>229.4981060606061</v>
+        <v>202.8384076425996</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00166958392901328</v>
+        <v>0.07253837635974915</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00481517523471341</v>
+        <v>0.05565261118953309</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00937486973060064</v>
+        <v>0.06590163184014766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006308739703534465</v>
+        <v>0.05512679624661319</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00325425129844248</v>
+        <v>0.04355757907624901</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00557115834073176</v>
+        <v>0.03146852471909044</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007353969203507039</v>
+        <v>0.03359284126002617</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01145894433340608</v>
+        <v>0.04142910008457462</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01113874172840242</v>
+        <v>0.02982252889631247</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008481361700538202</v>
+        <v>0.05590186250287746</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002225833267580496</v>
+        <v>0.03393064046399515</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004655038127442192</v>
+        <v>0.03970984803430506</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01709494619344482</v>
+        <v>0.0007132284993262234</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5</v>
+        <v>19.44186046511628</v>
       </c>
       <c r="D7" t="n">
-        <v>3.660785333947099</v>
+        <v>3.451157111622227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003143090022745087</v>
+        <v>0.0001868171467499317</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>3.291666666666667</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="H7" t="n">
-        <v>228.9545454545455</v>
+        <v>132.8</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00084488408863488</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004479330314373121</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004846666157101441</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00116701653555648</v>
+        <v>1.22328777312e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00186918371732736</v>
+        <v>3.914520873983999e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004263973414505281</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00227811134434176</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006118885441146239</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005205890939028679</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005954181975373364</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00154195423801776</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001537917388366464</v>
+        <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.627407685013376</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C8" t="n">
-        <v>32.64285714285715</v>
+        <v>37.875</v>
       </c>
       <c r="D8" t="n">
-        <v>10.91875</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3792225882715258</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n">
-        <v>9.039999999999999</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>145.4333333333333</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.771903646229632</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J8" t="n">
-        <v>0.634922599812928</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5662128606475126</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L8" t="n">
-        <v>0.265392282378384</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04813025743340734</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N8" t="n">
-        <v>0.022875481357344</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003147764097792416</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00305087970616128</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.015168768386688</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04942082603404799</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S8" t="n">
-        <v>0.403603412611392</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T8" t="n">
-        <v>0.603452389175552</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4551085985490882</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C9" t="n">
-        <v>22.91011721341241</v>
+        <v>37.875</v>
       </c>
       <c r="D9" t="n">
-        <v>5.599358017183451</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09433302852553306</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F9" t="n">
-        <v>82.17654545454546</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>4.525194002213452</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>128.2072481710811</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1983500240022064</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1723914935159727</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1366875575798186</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07003580551284748</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01663312964012545</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004667836312401885</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002861603725265833</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0005165499433968284</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001577716870718293</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R9" t="n">
-        <v>0.006595335095509777</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08273480529858852</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1489287902956168</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0407344527078239</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C10" t="n">
-        <v>18.28</v>
+        <v>37.875</v>
       </c>
       <c r="D10" t="n">
-        <v>1.896946988683831</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007367821022266251</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F10" t="n">
-        <v>56.00000000000001</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.928571428571428</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>95.39583333333333</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01609976234013662</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01922392204762624</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01341065919915994</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00395998640288496</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00140922751463424</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0048238314520032</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.613857805650413</v>
+        <v>1.557943628618916</v>
       </c>
       <c r="C11" t="n">
-        <v>28.83870967741936</v>
+        <v>39.73913043478261</v>
       </c>
       <c r="D11" t="n">
-        <v>14.87795698924731</v>
+        <v>22.9</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8522581531760033</v>
+        <v>0.2545330732633128</v>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G11" t="n">
-        <v>3.238095238095238</v>
+        <v>5.375</v>
       </c>
       <c r="H11" t="n">
-        <v>213.2857142857143</v>
+        <v>158.2608695652174</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.6867681474504282</v>
       </c>
       <c r="J11" t="n">
-        <v>0.139210148581056</v>
+        <v>0.489734522198784</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4095078149296512</v>
+        <v>0.3698925671303215</v>
       </c>
       <c r="L11" t="n">
-        <v>1.079665050785904</v>
+        <v>0.215543305623744</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7287247593253152</v>
+        <v>0.04813025743340734</v>
       </c>
       <c r="N11" t="n">
-        <v>0.490293739466496</v>
+        <v>0.01069398171261504</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5262933510754559</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05831005051872001</v>
+        <v>0.00305087970616128</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.379871629812864</v>
+        <v>0.0006083817858316801</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4320163099550592</v>
+        <v>0.0116181756252072</v>
       </c>
       <c r="S11" t="n">
-        <v>0.031665677784192</v>
+        <v>0.2934778575694255</v>
       </c>
       <c r="T11" t="n">
-        <v>0.14557124500128</v>
+        <v>0.603452389175552</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7818443645815026</v>
+        <v>0.4210900000541694</v>
       </c>
       <c r="C12" t="n">
-        <v>24.85183388578974</v>
+        <v>26.59516735679779</v>
       </c>
       <c r="D12" t="n">
-        <v>11.44596991859301</v>
+        <v>8.911438907212716</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3763775182567269</v>
+        <v>0.08653641591828432</v>
       </c>
       <c r="F12" t="n">
-        <v>74</v>
+        <v>74.7428</v>
       </c>
       <c r="G12" t="n">
-        <v>2.367989867140971</v>
+        <v>4.006801242236024</v>
       </c>
       <c r="H12" t="n">
-        <v>204.1249494704503</v>
+        <v>135.2445151828848</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1742027473994851</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05994110088288</v>
+        <v>0.1534224393469042</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2383957079486073</v>
+        <v>0.1191883270639195</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4774528585861561</v>
+        <v>0.0631599126607585</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3124408362716704</v>
+        <v>0.02146494084716687</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2429957896750604</v>
+        <v>0.002153965110909707</v>
       </c>
       <c r="O12" t="n">
-        <v>0.23283243948384</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.028366684250016</v>
+        <v>0.000610175941232256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.184628105179728</v>
+        <v>0.000121676357166336</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3114871248781824</v>
+        <v>0.00251936116874064</v>
       </c>
       <c r="S12" t="n">
-        <v>0.019036687821696</v>
+        <v>0.06037421049083674</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04852374833376</v>
+        <v>0.1370520415083606</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2755870048359825</v>
+        <v>0.08099889311296513</v>
       </c>
       <c r="C13" t="n">
-        <v>21.69047619047619</v>
+        <v>19.02083333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>6.446794871794872</v>
+        <v>3.278577441077441</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1320609373306332</v>
+        <v>0.01174089462022325</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>1.736842105263158</v>
+        <v>2.130434782608696</v>
       </c>
       <c r="H13" t="n">
-        <v>195.4838709677419</v>
+        <v>123.5777777777778</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.01595500880086674</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.03744196041103189</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1064904198284463</v>
+        <v>0.02464448202428657</v>
       </c>
       <c r="L13" t="n">
-        <v>0.109224307042452</v>
+        <v>0.01284124932296693</v>
       </c>
       <c r="M13" t="n">
-        <v>0.081498149862528</v>
+        <v>0.001572291774791144</v>
       </c>
       <c r="N13" t="n">
-        <v>0.114919148514816</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.032050139655744</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002079589214304</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07309144444392</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.201353167455552</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0007339726638720001</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.009010737736802259</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.492787479444283</v>
+        <v>1.613857805650413</v>
       </c>
       <c r="C14" t="n">
-        <v>69.92307692307692</v>
+        <v>32.57142857142857</v>
       </c>
       <c r="D14" t="n">
-        <v>35.87435897435898</v>
+        <v>15.65602836879433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7770512132977182</v>
+        <v>0.8522581531760033</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G14" t="n">
-        <v>2.777777777777778</v>
+        <v>5.755102040816326</v>
       </c>
       <c r="H14" t="n">
-        <v>172.4615384615385</v>
+        <v>214.2926829268293</v>
       </c>
       <c r="I14" t="n">
-        <v>0.349912729731168</v>
+        <v>0.03714574487467559</v>
       </c>
       <c r="J14" t="n">
-        <v>0.672074302552128</v>
+        <v>0.223127689817088</v>
       </c>
       <c r="K14" t="n">
-        <v>0.505843086271488</v>
+        <v>0.4095078149296512</v>
       </c>
       <c r="L14" t="n">
-        <v>0.523757456104512</v>
+        <v>1.079665050785904</v>
       </c>
       <c r="M14" t="n">
-        <v>0.348820508505168</v>
+        <v>0.7287247593253152</v>
       </c>
       <c r="N14" t="n">
-        <v>0.186429056623488</v>
+        <v>0.5440156453108408</v>
       </c>
       <c r="O14" t="n">
-        <v>0.094111606012032</v>
+        <v>0.5262933510754559</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.1131541190136</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.4320163099550592</v>
       </c>
       <c r="S14" t="n">
-        <v>0.127385033440896</v>
+        <v>0.06832935989856</v>
       </c>
       <c r="T14" t="n">
-        <v>0.215597673969216</v>
+        <v>0.171749603346048</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.10600863015123</v>
+        <v>0.5063144152272055</v>
       </c>
       <c r="C15" t="n">
-        <v>51.86894586894587</v>
+        <v>22.76163651784899</v>
       </c>
       <c r="D15" t="n">
-        <v>24.14176502509836</v>
+        <v>8.956279809446361</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5189952670046415</v>
+        <v>0.2097126144947722</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>82.76083333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>2.427350427350428</v>
+        <v>3.118618944699906</v>
       </c>
       <c r="H15" t="n">
-        <v>159.9159544159544</v>
+        <v>203.4251282829971</v>
       </c>
       <c r="I15" t="n">
-        <v>0.346237041231936</v>
+        <v>0.0042982968306061</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4866946980708429</v>
+        <v>0.03424221723821588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.346788491593152</v>
+        <v>0.1595520445214659</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3527912511909469</v>
+        <v>0.3046404695589989</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2184078378258</v>
+        <v>0.1652855704528427</v>
       </c>
       <c r="N15" t="n">
-        <v>0.094437816084864</v>
+        <v>0.1628597081068434</v>
       </c>
       <c r="O15" t="n">
-        <v>0.047055803006016</v>
+        <v>0.1452139341313014</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.04021772629492313</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.1024035271438655</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1425669782079344</v>
       </c>
       <c r="S15" t="n">
-        <v>0.063692516720448</v>
+        <v>0.02649990050679611</v>
       </c>
       <c r="T15" t="n">
-        <v>0.146699388169824</v>
+        <v>0.02957123363306696</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,47 +1509,47 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7192297808581759</v>
+        <v>0.05186583993632232</v>
       </c>
       <c r="C16" t="n">
-        <v>33.81481481481482</v>
+        <v>18.6530612244898</v>
       </c>
       <c r="D16" t="n">
-        <v>12.40917107583774</v>
+        <v>3.242220308036634</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2609393207115648</v>
+        <v>0.0158693616504945</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>2.076923076923077</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="H16" t="n">
-        <v>147.3703703703704</v>
+        <v>180.0408163265306</v>
       </c>
       <c r="I16" t="n">
-        <v>0.342561352732704</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3013150935895579</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.187733896914816</v>
+        <v>0.0019113871455</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1818250462773818</v>
+        <v>0.0200479390474752</v>
       </c>
       <c r="M16" t="n">
-        <v>0.087995167146432</v>
+        <v>0.01554064786971648</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00244657554624</v>
+        <v>0.001100958995808</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.0041163633565488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.077801102370432</v>
+        <v>0</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.772360490084912</v>
+        <v>0.2630413456944061</v>
       </c>
       <c r="C17" t="n">
-        <v>31.51724137931035</v>
+        <v>28.5</v>
       </c>
       <c r="D17" t="n">
-        <v>11.18333333333333</v>
+        <v>7.629947916666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6435696586254769</v>
+        <v>0.05223181994867501</v>
       </c>
       <c r="F17" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>6.708333333333333</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>217.6428571428571</v>
+        <v>246.98</v>
       </c>
       <c r="I17" t="n">
-        <v>0.555966817343424</v>
+        <v>0.0077311787261184</v>
       </c>
       <c r="J17" t="n">
-        <v>0.793546778422944</v>
+        <v>0.0198526013491008</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8063062017608348</v>
+        <v>0.08796580823987712</v>
       </c>
       <c r="L17" t="n">
-        <v>0.940218982420032</v>
+        <v>0.0605282790139776</v>
       </c>
       <c r="M17" t="n">
-        <v>1.26549120129264</v>
+        <v>0.1253391289623736</v>
       </c>
       <c r="N17" t="n">
-        <v>0.526258399996224</v>
+        <v>0.05600970707409435</v>
       </c>
       <c r="O17" t="n">
-        <v>1.033311181954464</v>
+        <v>0.07725997742608716</v>
       </c>
       <c r="P17" t="n">
-        <v>0.479773464617664</v>
+        <v>0.04413622285416961</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742454125765632</v>
+        <v>0.04167270947722487</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4532362751927854</v>
+        <v>0.1160268064674768</v>
       </c>
       <c r="S17" t="n">
-        <v>0.334827455589312</v>
+        <v>0.09569780249117761</v>
       </c>
       <c r="T17" t="n">
-        <v>0.385733217059064</v>
+        <v>0.0153808049340288</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5758231144813912</v>
+        <v>0.06828319619926826</v>
       </c>
       <c r="C18" t="n">
-        <v>22.39373085933292</v>
+        <v>21.12771958717611</v>
       </c>
       <c r="D18" t="n">
-        <v>6.317379681997894</v>
+        <v>4.063569994871028</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1748945183422079</v>
+        <v>0.01306928123939791</v>
       </c>
       <c r="F18" t="n">
-        <v>82.62944999999999</v>
+        <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>3.880744284538797</v>
+        <v>5.576402613087396</v>
       </c>
       <c r="H18" t="n">
-        <v>172.6530504899322</v>
+        <v>223.48928304787</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1725885622203202</v>
+        <v>0.001866665783327688</v>
       </c>
       <c r="J18" t="n">
-        <v>0.170024119397971</v>
+        <v>0.004173814840278608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1994977749951963</v>
+        <v>0.02216011041585947</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2162996356046705</v>
+        <v>0.01575994323842</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2040510234742241</v>
+        <v>0.03031333028117173</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1755457014576395</v>
+        <v>0.01776108885851862</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1950825475569927</v>
+        <v>0.01644911895451701</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1380850449428263</v>
+        <v>0.01115303742710885</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1306000880202612</v>
+        <v>0.01312701609300267</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1362330361535847</v>
+        <v>0.02882739835926421</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09832030894180661</v>
+        <v>0.02320454463563942</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1124697659909165</v>
+        <v>0.003974458576845288</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1004125574500776</v>
+        <v>0.01314054257940176</v>
       </c>
       <c r="C19" t="n">
-        <v>18.97916666666667</v>
+        <v>18.14</v>
       </c>
       <c r="D19" t="n">
-        <v>2.603948240621035</v>
+        <v>1.996848595848596</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01881172141605882</v>
+        <v>0.001460736763014261</v>
       </c>
       <c r="F19" t="n">
-        <v>57.99999999999999</v>
+        <v>64</v>
       </c>
       <c r="G19" t="n">
-        <v>2.171428571428571</v>
+        <v>3.9375</v>
       </c>
       <c r="H19" t="n">
-        <v>148.2444444444444</v>
+        <v>204.9545454545455</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01760422313499055</v>
+        <v>4.403835983232e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0182886052776896</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007980729431834987</v>
+        <v>0.0008903276610886302</v>
       </c>
       <c r="L19" t="n">
-        <v>0.024918825008</v>
+        <v>0.002607618468981312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.043778411180532</v>
+        <v>0.0045191988162804</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0162976882458816</v>
+        <v>0.002969829779053864</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.001299576446970938</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.0009010737736801919</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.001258683770144386</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.003054815501605232</v>
       </c>
       <c r="S19" t="n">
-        <v>0.00244657554624</v>
+        <v>0.001305635428380528</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01472349163727261</v>
+        <v>4.483349688484801e-05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.7935027621432</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C20" t="n">
-        <v>31.96428571428572</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D20" t="n">
-        <v>11.79137931034483</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E20" t="n">
-        <v>1.148984136483669</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F20" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>4.821428571428571</v>
+        <v>3.457142857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>246.7142857142857</v>
+        <v>172.4615384615385</v>
       </c>
       <c r="I20" t="n">
-        <v>0.68137128962784</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04713433379072</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K20" t="n">
-        <v>0.273241712255904</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2445107600912256</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M20" t="n">
-        <v>1.427465623251665</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N20" t="n">
-        <v>2.563677548521397</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O20" t="n">
-        <v>0.835865339562466</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2691233100864</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05137808647104</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1078869476844889</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,53 +1854,53 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8405368843419717</v>
+        <v>0.7401169286426872</v>
       </c>
       <c r="C21" t="n">
-        <v>25.00964091496978</v>
+        <v>43.20786867453534</v>
       </c>
       <c r="D21" t="n">
-        <v>7.308467321452022</v>
+        <v>18.2057080515017</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2708431945670212</v>
+        <v>0.3466819146527254</v>
       </c>
       <c r="F21" t="n">
-        <v>74.93875</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>3.642277115726566</v>
+        <v>2.770614570614571</v>
       </c>
       <c r="H21" t="n">
-        <v>188.6750239563246</v>
+        <v>154.3344458011125</v>
       </c>
       <c r="I21" t="n">
-        <v>0.112100534184412</v>
+        <v>0.2317878293946605</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1973626770037089</v>
+        <v>0.3257490210867064</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1157792862628716</v>
+        <v>0.2320819352183882</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1070732388598011</v>
+        <v>0.2362707234336832</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3220333275287915</v>
+        <v>0.1466314821063295</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4937929242433289</v>
+        <v>0.0637169824759104</v>
       </c>
       <c r="O21" t="n">
-        <v>0.121005707634249</v>
+        <v>0.031370535337344</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0336404137608</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01047666973675267</v>
+        <v>0.04284680958086928</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02770495413197954</v>
+        <v>0.09873301893590529</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,47 +1923,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0665590877354592</v>
+        <v>0.008333525625602689</v>
       </c>
       <c r="C22" t="n">
-        <v>19.69565217391304</v>
+        <v>25.88571428571429</v>
       </c>
       <c r="D22" t="n">
-        <v>4.310533126293996</v>
+        <v>6.333594104308389</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01769572094347538</v>
+        <v>0.002055209948893224</v>
       </c>
       <c r="F22" t="n">
-        <v>56.00000000000001</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.827586206896552</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H22" t="n">
-        <v>138.3611111111111</v>
+        <v>143.1714285714286</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.00288940572010944</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02830049669900661</v>
+        <v>0.00385766711843328</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0276576627732624</v>
+        <v>0.002668822468860442</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0232370308547328</v>
+        <v>0.003229667919155741</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0033137506565184</v>
+        <v>0.003078770667388416</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0066791512412352</v>
+        <v>0.0022753152580032</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.00280028046806784</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.205219093129974</v>
+        <v>1.772360490084912</v>
       </c>
       <c r="C23" t="n">
-        <v>32.64285714285715</v>
+        <v>25.88571428571429</v>
       </c>
       <c r="D23" t="n">
-        <v>8.113779375386518</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3967162681829625</v>
+        <v>0.6435696586254769</v>
       </c>
       <c r="F23" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G23" t="n">
-        <v>4.321428571428571</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>188.7297297297297</v>
+        <v>177.0833333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.304435550470464</v>
+        <v>0.3968771027400627</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2765923557182784</v>
+        <v>0.793546778422944</v>
       </c>
       <c r="K23" t="n">
-        <v>0.23594162924052</v>
+        <v>0.8063062017608348</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2025030579622848</v>
+        <v>0.940218982420032</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8552529088070401</v>
+        <v>1.26549120129264</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8701904623618855</v>
+        <v>0.3425205764736</v>
       </c>
       <c r="O23" t="n">
-        <v>0.334272121774848</v>
+        <v>0.229733443791936</v>
       </c>
       <c r="P23" t="n">
-        <v>0.342031261364352</v>
+        <v>0.2624278483415266</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05012625531654774</v>
+        <v>0.1419472549734143</v>
       </c>
       <c r="R23" t="n">
-        <v>0.175725288608688</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S23" t="n">
-        <v>0.168704975999616</v>
+        <v>0.14740617666096</v>
       </c>
       <c r="T23" t="n">
-        <v>0.331347881479104</v>
+        <v>0.256401117245952</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6264987702228451</v>
+        <v>0.6557171683023835</v>
       </c>
       <c r="C24" t="n">
-        <v>26.86884889090772</v>
+        <v>20.95054489616711</v>
       </c>
       <c r="D24" t="n">
-        <v>6.775794880902549</v>
+        <v>6.35032940055833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1768997305464098</v>
+        <v>0.2113226317060527</v>
       </c>
       <c r="F24" t="n">
-        <v>69</v>
+        <v>87.4504</v>
       </c>
       <c r="G24" t="n">
-        <v>3.758030291118526</v>
+        <v>3.677838172877757</v>
       </c>
       <c r="H24" t="n">
-        <v>175.967527239586</v>
+        <v>162.1713218195022</v>
       </c>
       <c r="I24" t="n">
-        <v>0.158202200961983</v>
+        <v>0.1638410559552142</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1407484475187042</v>
+        <v>0.2328657322305493</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1445914118831406</v>
+        <v>0.2689921772647089</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1127242692822121</v>
+        <v>0.3465512717983464</v>
       </c>
       <c r="M24" t="n">
-        <v>0.335853024621785</v>
+        <v>0.2418589285321553</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3816511171661093</v>
+        <v>0.1470489970193389</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2361856882579123</v>
+        <v>0.09308999761644068</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1294692827990978</v>
+        <v>0.07122863813351683</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02267506604384797</v>
+        <v>0.07016997984638521</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1208866637443984</v>
+        <v>0.1005626461220701</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1173995948342028</v>
+        <v>0.05280442537686655</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1948868974127392</v>
+        <v>0.1193373123222862</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1940662169464741</v>
+        <v>0.1004125574500776</v>
       </c>
       <c r="C25" t="n">
-        <v>23.33333333333333</v>
+        <v>19.02083333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>4.567507117507118</v>
+        <v>3.356055345117845</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04452851379583939</v>
+        <v>0.01881172141605882</v>
       </c>
       <c r="F25" t="n">
-        <v>56.00000000000001</v>
+        <v>70</v>
       </c>
       <c r="G25" t="n">
-        <v>3.205128205128205</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="H25" t="n">
-        <v>162.1025641025641</v>
+        <v>148.2444444444444</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09610593577548218</v>
+        <v>0.0178482216793664</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04429647355244875</v>
+        <v>0.0182886052776896</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06214840134069849</v>
+        <v>0.02073228117883776</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03990500636781159</v>
+        <v>0.024918825008</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02798862036769039</v>
+        <v>0.043778411180532</v>
       </c>
       <c r="N25" t="n">
-        <v>0.09058067852823805</v>
+        <v>0.0162976882458816</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1208955733570133</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02747015023318272</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.006605753974848</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02044334060682703</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02620499883404974</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04369269365871607</v>
+        <v>0.0183126179636064</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,65 +2199,65 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.20978769472126</v>
+        <v>0.953797476701664</v>
       </c>
       <c r="C26" t="n">
-        <v>37.45833333333334</v>
+        <v>31.51724137931035</v>
       </c>
       <c r="D26" t="n">
-        <v>27.02083333333333</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.407769387083184</v>
+        <v>0.3291833233573157</v>
       </c>
       <c r="F26" t="n">
-        <v>87.75500000000001</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>4.261904761904762</v>
+        <v>9.84</v>
       </c>
       <c r="H26" t="n">
-        <v>185.34375</v>
+        <v>212.4137931034483</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2676675976363873</v>
+        <v>0.555966817343424</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3834150867290016</v>
+        <v>0.3446937112234955</v>
       </c>
       <c r="K26" t="n">
-        <v>0.517559464720704</v>
+        <v>0.3932992519358112</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5299540167423865</v>
+        <v>0.4901591778114528</v>
       </c>
       <c r="M26" t="n">
-        <v>0.165248702608896</v>
+        <v>0.4459087814317921</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0406620855785088</v>
+        <v>0.526258399996224</v>
       </c>
       <c r="O26" t="n">
-        <v>1.412652720398976</v>
+        <v>1.033311181954464</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08685343189152001</v>
+        <v>0.479773464617664</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.114499735564032</v>
+        <v>0.742454125765632</v>
       </c>
       <c r="R26" t="n">
-        <v>0.298604545418592</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S26" t="n">
-        <v>0.142941176289072</v>
+        <v>0.334827455589312</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3912741546314008</v>
+        <v>0.385733217059064</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2268,65 +2268,65 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5018416888711366</v>
+        <v>0.466945589156179</v>
       </c>
       <c r="C27" t="n">
-        <v>26.01611242439731</v>
+        <v>22.52137084601626</v>
       </c>
       <c r="D27" t="n">
-        <v>11.02757047934685</v>
+        <v>6.25872704614603</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1920322026615707</v>
+        <v>0.1442257904417744</v>
       </c>
       <c r="F27" t="n">
-        <v>72.6938</v>
+        <v>82.46117647058823</v>
       </c>
       <c r="G27" t="n">
-        <v>3.142105907658233</v>
+        <v>4.340779705713248</v>
       </c>
       <c r="H27" t="n">
-        <v>167.2770237030412</v>
+        <v>168.4376129200533</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1204560725289306</v>
+        <v>0.1699009084282591</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1579984284914142</v>
+        <v>0.1282942815603463</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2054445688532321</v>
+        <v>0.1392763473283858</v>
       </c>
       <c r="L27" t="n">
-        <v>0.250547942785841</v>
+        <v>0.1510912466272304</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06871257189562054</v>
+        <v>0.1484639919978125</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02226519667942085</v>
+        <v>0.1514931011180076</v>
       </c>
       <c r="O27" t="n">
-        <v>0.4245976812549732</v>
+        <v>0.201060206310128</v>
       </c>
       <c r="P27" t="n">
-        <v>0.04506807454822165</v>
+        <v>0.1447280873931621</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.06401591323140196</v>
+        <v>0.1354888903382748</v>
       </c>
       <c r="R27" t="n">
-        <v>0.137568135228377</v>
+        <v>0.1398004050270736</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05629490643437603</v>
+        <v>0.09459152518955145</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1353742500375979</v>
+        <v>0.1029434553197564</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2337,65 +2337,65 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07398773210418941</v>
+        <v>0.01803480441717985</v>
       </c>
       <c r="C28" t="n">
-        <v>20.25581395348837</v>
+        <v>18.28</v>
       </c>
       <c r="D28" t="n">
-        <v>4.546195801552945</v>
+        <v>1.862569673017042</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03186377183075512</v>
+        <v>0.001874900427195323</v>
       </c>
       <c r="F28" t="n">
-        <v>48</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1.458333333333333</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="H28" t="n">
-        <v>158.6279069767442</v>
+        <v>138.32</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0333536207384352</v>
+        <v>0.003738223518446139</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02608160740271215</v>
+        <v>0.003520027098068675</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04666312763084499</v>
+        <v>0.003732991241723643</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04926546848686177</v>
+        <v>0.003346156908837003</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00259826323010712</v>
+        <v>0.003563830862642974</v>
       </c>
       <c r="N28" t="n">
-        <v>0.008477384267721867</v>
+        <v>0.0007339726638720001</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0167957411249376</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.015291097164</v>
+        <v>0.000503586799934409</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02516731100028505</v>
+        <v>0.002118311832722227</v>
       </c>
       <c r="R28" t="n">
-        <v>0.00122328777312</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.000489315109248</v>
+        <v>0.001797866040154464</v>
       </c>
       <c r="T28" t="n">
-        <v>0.006505444377452374</v>
+        <v>0.003054045862750549</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -2406,65 +2406,65 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6120219936898734</v>
+        <v>4.84582514675742</v>
       </c>
       <c r="C29" t="n">
-        <v>28.5</v>
+        <v>31.96428571428572</v>
       </c>
       <c r="D29" t="n">
-        <v>7.629947916666667</v>
+        <v>16.82828282828283</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1216763417207833</v>
+        <v>1.76475401875122</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>4.821428571428571</v>
       </c>
       <c r="H29" t="n">
-        <v>246.98</v>
+        <v>246.7142857142857</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0077311787261184</v>
+        <v>0.68137128962784</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08703136465851927</v>
+        <v>1.04713433379072</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2851239141588096</v>
+        <v>0.7455065200185599</v>
       </c>
       <c r="L29" t="n">
-        <v>0.134989805763792</v>
+        <v>0.65609000898336</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1629500866314048</v>
+        <v>2.057744789784</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3256729510741473</v>
+        <v>3.057534391647053</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1670847993045504</v>
+        <v>0.90453393052416</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05037721465666909</v>
+        <v>0.2691233100864</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04167270947722487</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1160268064674768</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09569780249117761</v>
+        <v>0.01764979987187096</v>
       </c>
       <c r="T29" t="n">
-        <v>0.022508495025408</v>
+        <v>0.1078869476844889</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -2475,65 +2475,65 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1254268662002601</v>
+        <v>2.168353793599905</v>
       </c>
       <c r="C30" t="n">
-        <v>20.60127997364954</v>
+        <v>29.26787327783778</v>
       </c>
       <c r="D30" t="n">
-        <v>3.991032099085173</v>
+        <v>10.96723020516984</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02392622644113934</v>
+        <v>0.7639807620740112</v>
       </c>
       <c r="F30" t="n">
-        <v>89.59999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.207438405797101</v>
+        <v>3.17013272393597</v>
       </c>
       <c r="H30" t="n">
-        <v>223.0073326745718</v>
+        <v>218.6042023392429</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001993508492522501</v>
+        <v>0.2182236044138975</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01310276246666816</v>
+        <v>0.3497348753393162</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05251868082508545</v>
+        <v>0.2877362779089329</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02781639635164716</v>
+        <v>0.2607150781719385</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04187433644428174</v>
+        <v>0.8960627549979268</v>
       </c>
       <c r="N30" t="n">
-        <v>0.05046204006410036</v>
+        <v>1.352950404053765</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03593566132020642</v>
+        <v>0.3683179269358224</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01484004792880949</v>
+        <v>0.05382466201728</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01727156382559479</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02840766459379795</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01765319177702402</v>
+        <v>0.004361795660095792</v>
       </c>
       <c r="T30" t="n">
-        <v>0.009037892686552227</v>
+        <v>0.03454423993196978</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -2544,65 +2544,65 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01314054257940176</v>
+        <v>0.2183600696375624</v>
       </c>
       <c r="C31" t="n">
-        <v>18.12</v>
+        <v>26.85294117647059</v>
       </c>
       <c r="D31" t="n">
-        <v>1.996848595848596</v>
+        <v>8.377324263038549</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001460736763014261</v>
+        <v>0.06699524439480588</v>
       </c>
       <c r="F31" t="n">
-        <v>64</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>3.9375</v>
+        <v>1.606060606060606</v>
       </c>
       <c r="H31" t="n">
-        <v>190.6521739130435</v>
+        <v>165.8823529411765</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.0729903193213423</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0008903276610886302</v>
+        <v>0.09821721070944839</v>
       </c>
       <c r="L31" t="n">
-        <v>0.002607618468981312</v>
+        <v>0.07210246332888265</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0045191988162804</v>
+        <v>0.0728035436665166</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002969829779053864</v>
+        <v>0.0616983537689672</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001299576446970938</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0009010737736801919</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001258683770144386</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.003054815501605232</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.483349688484801e-05</v>
+        <v>0</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -2613,65 +2613,65 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.465916781825434</v>
+        <v>0.9030908392972032</v>
       </c>
       <c r="C32" t="n">
-        <v>60.86666666666667</v>
+        <v>39.73913043478261</v>
       </c>
       <c r="D32" t="n">
-        <v>25.09055555555556</v>
+        <v>13.73812974465149</v>
       </c>
       <c r="E32" t="n">
-        <v>1.400869468884829</v>
+        <v>0.1899348012859075</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G32" t="n">
-        <v>8.959183673469388</v>
+        <v>5.291666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>255.9387755102041</v>
+        <v>236.5416666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02901312387767808</v>
+        <v>0.1705451542046338</v>
       </c>
       <c r="J32" t="n">
-        <v>0.039879181403712</v>
+        <v>0.3390733515289476</v>
       </c>
       <c r="K32" t="n">
-        <v>0.401788869081264</v>
+        <v>0.1555532732299392</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9841961778636961</v>
+        <v>0.167699161608384</v>
       </c>
       <c r="M32" t="n">
-        <v>1.479933547920576</v>
+        <v>0.376188612861535</v>
       </c>
       <c r="N32" t="n">
-        <v>1.094054215933056</v>
+        <v>0.512465830354296</v>
       </c>
       <c r="O32" t="n">
-        <v>1.619947571323968</v>
+        <v>0.260572528552291</v>
       </c>
       <c r="P32" t="n">
-        <v>1.415180848463424</v>
+        <v>0.148588688174976</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.960403230676512</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="R32" t="n">
-        <v>0.7198314572147329</v>
+        <v>0.3698777393997382</v>
       </c>
       <c r="S32" t="n">
-        <v>0.670239370892448</v>
+        <v>0.1742534695363289</v>
       </c>
       <c r="T32" t="n">
-        <v>0.142635354345792</v>
+        <v>0.2187715620570075</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -2682,65 +2682,65 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1662529415832263</v>
+        <v>0.2779340595648183</v>
       </c>
       <c r="C33" t="n">
-        <v>25.51162053006383</v>
+        <v>27.02280261691017</v>
       </c>
       <c r="D33" t="n">
-        <v>8.117343004465772</v>
+        <v>7.170087109665654</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0673875179014375</v>
+        <v>0.06049623147138092</v>
       </c>
       <c r="F33" t="n">
-        <v>76.5524358974359</v>
+        <v>71.77777777777777</v>
       </c>
       <c r="G33" t="n">
-        <v>4.037051898380052</v>
+        <v>3.854618934615121</v>
       </c>
       <c r="H33" t="n">
-        <v>230.5358489019253</v>
+        <v>206.9287402281872</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002562226606201198</v>
+        <v>0.04941735163787549</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005071582753826463</v>
+        <v>0.07515402672196665</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02987906725401349</v>
+        <v>0.06552562595103038</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0434593484467353</v>
+        <v>0.06050417616224248</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06069723956126671</v>
+        <v>0.0887305069477769</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06544850225387679</v>
+        <v>0.145786570389714</v>
       </c>
       <c r="O33" t="n">
-        <v>0.06928092790754518</v>
+        <v>0.08469453796745294</v>
       </c>
       <c r="P33" t="n">
-        <v>0.04419095138655339</v>
+        <v>0.04979826373999016</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04005574081340153</v>
+        <v>0.03396597596706417</v>
       </c>
       <c r="R33" t="n">
-        <v>0.02848261055361696</v>
+        <v>0.08960106867767745</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02071072986541985</v>
+        <v>0.05708862561654841</v>
       </c>
       <c r="T33" t="n">
-        <v>0.009684699198481151</v>
+        <v>0.07454255306010733</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -2751,65 +2751,65 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000632139875894146</v>
+        <v>0.006870448355868643</v>
       </c>
       <c r="C34" t="n">
-        <v>18.22</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="D34" t="n">
-        <v>1.94614114043886</v>
+        <v>3.450479497354497</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001286619316597412</v>
+        <v>0.001747652825357879</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G34" t="n">
-        <v>1.785714285714286</v>
+        <v>2.434782608695652</v>
       </c>
       <c r="H34" t="n">
-        <v>201.725</v>
+        <v>192.8846153846154</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.00020306577033792</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.002343452386965984</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.00152334278832672</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0009359374752141121</v>
       </c>
       <c r="M34" t="n">
-        <v>0.000119759872988448</v>
+        <v>0.001891386390409488</v>
       </c>
       <c r="N34" t="n">
-        <v>0.000397369742000868</v>
+        <v>0.003679969558347161</v>
       </c>
       <c r="O34" t="n">
-        <v>0.00029830746124512</v>
+        <v>0.003760294867987896</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.000687324623457024</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.00132329154857256</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.005310810321464889</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.001711868909704128</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.000167695278155136</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -2820,65 +2820,65 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3632736535445808</v>
+        <v>1.20978769472126</v>
       </c>
       <c r="C35" t="n">
-        <v>22.375</v>
+        <v>43.52380952380953</v>
       </c>
       <c r="D35" t="n">
-        <v>7.855952380952381</v>
+        <v>31.78571428571428</v>
       </c>
       <c r="E35" t="n">
-        <v>0.134010127012919</v>
+        <v>0.407769387083184</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>87.75500000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>9.380000000000001</v>
+        <v>3.883720930232558</v>
       </c>
       <c r="H35" t="n">
-        <v>158.2</v>
+        <v>204.4285714285714</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08962621751059201</v>
+        <v>0.2676675976363873</v>
       </c>
       <c r="J35" t="n">
-        <v>0.11000852188272</v>
+        <v>0.3834150867290016</v>
       </c>
       <c r="K35" t="n">
-        <v>0.111839084657496</v>
+        <v>0.517559464720704</v>
       </c>
       <c r="L35" t="n">
-        <v>0.10875610821024</v>
+        <v>0.5299540167423865</v>
       </c>
       <c r="M35" t="n">
-        <v>0.154348334773416</v>
+        <v>0.165248702608896</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1093129954060032</v>
+        <v>0.0406620855785088</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05468218674623707</v>
+        <v>1.412652720398976</v>
       </c>
       <c r="P35" t="n">
-        <v>0.059207128219008</v>
+        <v>0.08685343189152001</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.340318658481984</v>
+        <v>0.114499735564032</v>
       </c>
       <c r="R35" t="n">
-        <v>0.250040020825728</v>
+        <v>0.298604545418592</v>
       </c>
       <c r="S35" t="n">
-        <v>0.07749528042715199</v>
+        <v>0.142941176289072</v>
       </c>
       <c r="T35" t="n">
-        <v>0.154638865619532</v>
+        <v>0.3912741546314008</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2889,65 +2889,65 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2194455294094764</v>
+        <v>0.4827946154818765</v>
       </c>
       <c r="C36" t="n">
-        <v>20.04452075098814</v>
+        <v>29.15938623392112</v>
       </c>
       <c r="D36" t="n">
-        <v>5.39887120889199</v>
+        <v>15.99928667617912</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06042854026763878</v>
+        <v>0.1951133016034976</v>
       </c>
       <c r="F36" t="n">
-        <v>90</v>
+        <v>67.151</v>
       </c>
       <c r="G36" t="n">
-        <v>4.795815217391304</v>
+        <v>2.512641621943947</v>
       </c>
       <c r="H36" t="n">
-        <v>153.3411462450593</v>
+        <v>178.2439879887555</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05187826633149767</v>
+        <v>0.1129777337934298</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05815949753134901</v>
+        <v>0.1624907440143251</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06743826997452235</v>
+        <v>0.210901232347861</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05381020515620864</v>
+        <v>0.2467903289568893</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08493767987848141</v>
+        <v>0.06562158717031286</v>
       </c>
       <c r="N36" t="n">
-        <v>0.04832454993674646</v>
+        <v>0.01876857809290739</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03693849953777927</v>
+        <v>0.4221433989957625</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02409760700707952</v>
+        <v>0.04171821787347536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1209947055399268</v>
+        <v>0.04985037673953611</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07930519293928176</v>
+        <v>0.1245888911806094</v>
       </c>
       <c r="S36" t="n">
-        <v>0.04736982553735833</v>
+        <v>0.05116706933017692</v>
       </c>
       <c r="T36" t="n">
-        <v>0.07307709545041502</v>
+        <v>0.1291483175063977</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2958,65 +2958,65 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08257081260580626</v>
+        <v>0.02677409949027744</v>
       </c>
       <c r="C37" t="n">
-        <v>17.56</v>
+        <v>20.25581395348837</v>
       </c>
       <c r="D37" t="n">
-        <v>1.843597954333249</v>
+        <v>5.167986341823551</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02663167771330224</v>
+        <v>0.01415758851936224</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>2.825</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2391304347826</v>
+        <v>158.6279069767442</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01756209493574513</v>
+        <v>0.0060185758437504</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03180222000039169</v>
+        <v>0.0060376047646656</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0256360340986848</v>
+        <v>0.01240989466778089</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02642445506147803</v>
+        <v>0.025393415357016</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0370184355685728</v>
+        <v>0.004893151092479999</v>
       </c>
       <c r="N37" t="n">
-        <v>0.009235822687056</v>
+        <v>0.00414939212642336</v>
       </c>
       <c r="O37" t="n">
-        <v>0.007135845343200001</v>
+        <v>0.0068748772849344</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.015291097164</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01876034128856832</v>
+        <v>0.007880691676166401</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0127507362218208</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0209706475392</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03510410417455054</v>
+        <v>0.0057005210227392</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3027,65 +3027,65 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.772360490084912</v>
+        <v>0.2597610809961216</v>
       </c>
       <c r="C38" t="n">
-        <v>22.5</v>
+        <v>60.8</v>
       </c>
       <c r="D38" t="n">
-        <v>9.199583333333333</v>
+        <v>35.88888888888889</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6435696586254769</v>
+        <v>0.1574278937818137</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>11.66</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>169.1794871794872</v>
+        <v>246.98</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3968771027400627</v>
+        <v>0.01160900096690907</v>
       </c>
       <c r="J38" t="n">
-        <v>0.793546778422944</v>
+        <v>0.04298408965318629</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8063062017608348</v>
+        <v>0.1273469484148933</v>
       </c>
       <c r="L38" t="n">
-        <v>0.940218982420032</v>
+        <v>0.06387091285402834</v>
       </c>
       <c r="M38" t="n">
-        <v>1.26549120129264</v>
+        <v>0.1440696592597752</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3425205764736</v>
+        <v>0.1243180314292121</v>
       </c>
       <c r="O38" t="n">
-        <v>0.21040549697664</v>
+        <v>0.07236603479446012</v>
       </c>
       <c r="P38" t="n">
-        <v>0.435245789676096</v>
+        <v>0.04272821862730861</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.340318658481984</v>
+        <v>0.03374693389612106</v>
       </c>
       <c r="R38" t="n">
-        <v>0.594844067809152</v>
+        <v>0.1081522991906081</v>
       </c>
       <c r="S38" t="n">
-        <v>0.14740617666096</v>
+        <v>0.07136477375216141</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3029105183799744</v>
+        <v>0.01570163254065927</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3096,65 +3096,65 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5413212374744583</v>
+        <v>0.09384927580997905</v>
       </c>
       <c r="C39" t="n">
-        <v>20.45591408387886</v>
+        <v>23.43340460366704</v>
       </c>
       <c r="D39" t="n">
-        <v>5.330436257762343</v>
+        <v>6.657995241926416</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1589281347441329</v>
+        <v>0.02671657223902464</v>
       </c>
       <c r="F39" t="n">
-        <v>88.60609090909091</v>
+        <v>85.38461538461539</v>
       </c>
       <c r="G39" t="n">
-        <v>4.850839061819232</v>
+        <v>4.707449456940608</v>
       </c>
       <c r="H39" t="n">
-        <v>154.4887763346573</v>
+        <v>228.6577367768007</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1051589967016333</v>
+        <v>0.002492992521186745</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1821570789663401</v>
+        <v>0.01148976917462507</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2191911139001633</v>
+        <v>0.03530224867090403</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2371673005536669</v>
+        <v>0.01842635198810235</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2321390411079619</v>
+        <v>0.03349845480933684</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1045484690706224</v>
+        <v>0.03529749943691673</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04727407955664396</v>
+        <v>0.02607565762738276</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05339529789406861</v>
+        <v>0.01682462365849478</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.07083521432864383</v>
+        <v>0.01375518337620088</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1303060897462782</v>
+        <v>0.01772516455503525</v>
       </c>
       <c r="S39" t="n">
-        <v>0.05360355025632615</v>
+        <v>0.009401375867335925</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1293618815725253</v>
+        <v>0.005012149607565498</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -3165,65 +3165,65 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1444147544302841</v>
+        <v>0.005422433731693104</v>
       </c>
       <c r="C40" t="n">
-        <v>17.56</v>
+        <v>18.14</v>
       </c>
       <c r="D40" t="n">
-        <v>1.528433747109444</v>
+        <v>1.996848595848596</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01237280995147974</v>
+        <v>0.00116226982301356</v>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4186046511628</v>
+        <v>190.6521739130435</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02612170080580244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03102854518375306</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0264384399626183</v>
+        <v>0.0008763633606631681</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02717706302928443</v>
+        <v>0.001644245561606055</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03521623082853731</v>
+        <v>0.001613589970011667</v>
       </c>
       <c r="N40" t="n">
-        <v>0.002986860979367971</v>
+        <v>0.0008527872690357644</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0007860684125032704</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.000599013440302536</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.001258683770144386</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01003867586246065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02772697454187451</v>
+        <v>0</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -3234,65 +3234,65 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.895962542573363</v>
+        <v>3.465916781825434</v>
       </c>
       <c r="C41" t="n">
-        <v>31.75</v>
+        <v>60.86666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>13.53324829931973</v>
+        <v>27.68055555555556</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6705803186703563</v>
+        <v>1.400869468884829</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>97.872</v>
       </c>
       <c r="G41" t="n">
-        <v>8.448979591836734</v>
+        <v>6.404255319148936</v>
       </c>
       <c r="H41" t="n">
-        <v>192.0357142857143</v>
+        <v>262.5833333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>0.80968058494176</v>
+        <v>0.0136029600370944</v>
       </c>
       <c r="J41" t="n">
-        <v>0.58279468324392</v>
+        <v>0.04298408965318629</v>
       </c>
       <c r="K41" t="n">
-        <v>1.088236802967552</v>
+        <v>0.401788869081264</v>
       </c>
       <c r="L41" t="n">
-        <v>1.07710488423216</v>
+        <v>0.9841961778636961</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4911500409076801</v>
+        <v>1.479933547920576</v>
       </c>
       <c r="N41" t="n">
-        <v>2.1427924159152</v>
+        <v>1.094054215933056</v>
       </c>
       <c r="O41" t="n">
-        <v>0.51745072802976</v>
+        <v>1.619947571323968</v>
       </c>
       <c r="P41" t="n">
-        <v>0.27972513745344</v>
+        <v>1.415180848463424</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.62517556111552</v>
+        <v>0.960403230676512</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3409914667572</v>
+        <v>0.7198314572147329</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3013051884254031</v>
+        <v>0.670239370892448</v>
       </c>
       <c r="T41" t="n">
-        <v>0.62724080566728</v>
+        <v>0.142635354345792</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -3303,65 +3303,65 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4781141615082807</v>
+        <v>0.4665266615572894</v>
       </c>
       <c r="C42" t="n">
-        <v>20.50812633768803</v>
+        <v>28.28854338181713</v>
       </c>
       <c r="D42" t="n">
-        <v>5.190747141310813</v>
+        <v>11.6557713768715</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1096580564755347</v>
+        <v>0.2052025926603063</v>
       </c>
       <c r="F42" t="n">
-        <v>90.11764705882354</v>
+        <v>71.56228571428571</v>
       </c>
       <c r="G42" t="n">
-        <v>4.678127067410885</v>
+        <v>3.408555635972092</v>
       </c>
       <c r="H42" t="n">
-        <v>169.7191398861797</v>
+        <v>232.553362480504</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1185326326060638</v>
+        <v>0.002116229595698886</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1153965338333724</v>
+        <v>0.007034919247601135</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1685412954115508</v>
+        <v>0.08613473730658661</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1494462963906715</v>
+        <v>0.1626947156022805</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1060119257720372</v>
+        <v>0.1667942150075827</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2065647790308479</v>
+        <v>0.1556174363754019</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07404980166583089</v>
+        <v>0.1788629168090805</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05064582044988417</v>
+        <v>0.1245201221860644</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3322384945276797</v>
+        <v>0.08436780896084631</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1104858600898771</v>
+        <v>0.09409037819919328</v>
       </c>
       <c r="S42" t="n">
-        <v>0.08032028418206012</v>
+        <v>0.05579398057660719</v>
       </c>
       <c r="T42" t="n">
-        <v>0.09616970796627654</v>
+        <v>0.0179896408656034</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3372,65 +3372,65 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04569480268510385</v>
+        <v>0.03575392140881323</v>
       </c>
       <c r="C43" t="n">
-        <v>17.96</v>
+        <v>18.52173913043478</v>
       </c>
       <c r="D43" t="n">
-        <v>2.078686780459068</v>
+        <v>2.775061900969286</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01008605005431892</v>
+        <v>0.009034180996676182</v>
       </c>
       <c r="F43" t="n">
-        <v>56.00000000000001</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>2.230769230769231</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>153.0666666666667</v>
+        <v>211.2941176470588</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01115801554121856</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0143097485282304</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01895851390781376</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0138953840666688</v>
+        <v>0.001467945327744</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0073117657753344</v>
+        <v>0.0107914369718736</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00443441817756</v>
+        <v>0.01512062609368134</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01084322282093568</v>
+        <v>0.00289674544674816</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.013918296440832</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0087723325419072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.009000679592889601</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.008610198368803199</v>
+        <v>0</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -3441,65 +3441,65 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.060074734720427</v>
+        <v>8.590008295366848</v>
       </c>
       <c r="C44" t="n">
-        <v>32.32142857142857</v>
+        <v>37.875</v>
       </c>
       <c r="D44" t="n">
-        <v>22.65476190476191</v>
+        <v>25.32291666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7502027170564488</v>
+        <v>4.931346214382716</v>
       </c>
       <c r="F44" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G44" t="n">
-        <v>2.142857142857143</v>
+        <v>3.978260869565217</v>
       </c>
       <c r="H44" t="n">
-        <v>258.3571428571428</v>
+        <v>198.8666666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.12183039700224</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.5321301813072</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.71069999027648</v>
       </c>
       <c r="L44" t="n">
-        <v>0.04974703610688001</v>
+        <v>3.12917012364096</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4504461267795097</v>
+        <v>3.996409196678739</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7339038539347621</v>
+        <v>4.105149885295201</v>
       </c>
       <c r="O44" t="n">
-        <v>0.180530091139776</v>
+        <v>5.43384428819904</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0061164388656</v>
+        <v>17.20676581670592</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.003180548210112</v>
+        <v>1.40922751463424</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.12362757413632</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.20616174429632</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.66130030494816</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -3510,65 +3510,65 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5254352233616634</v>
+        <v>2.544175823239737</v>
       </c>
       <c r="C45" t="n">
-        <v>27.67625482625483</v>
+        <v>28.63130328218244</v>
       </c>
       <c r="D45" t="n">
-        <v>17.68018018018018</v>
+        <v>14.80825223023992</v>
       </c>
       <c r="E45" t="n">
-        <v>0.37346109545842</v>
+        <v>1.466429612496106</v>
       </c>
       <c r="F45" t="n">
-        <v>66.66666666666667</v>
+        <v>67</v>
       </c>
       <c r="G45" t="n">
-        <v>1.88963963963964</v>
+        <v>2.483658354646206</v>
       </c>
       <c r="H45" t="n">
-        <v>252.1445302445302</v>
+        <v>164.8168904518329</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.8556817400654728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.2100664145801954</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5627060273832495</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03639960729350401</v>
+        <v>1.004973908475543</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2007435891763827</v>
+        <v>1.226004698262354</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3579556587959572</v>
+        <v>1.064013666246821</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1137606130779946</v>
+        <v>1.392135126224321</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0020388129552</v>
+        <v>4.319251750159618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.001060182736704</v>
+        <v>0.378699312363624</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.5592168308235097</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.4171552454928406</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.059594631839741</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -3579,50 +3579,50 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1699705934131392</v>
+        <v>0.069554103966648</v>
       </c>
       <c r="C46" t="n">
-        <v>24.62162162162162</v>
+        <v>19.65217391304348</v>
       </c>
       <c r="D46" t="n">
-        <v>14.34523809523809</v>
+        <v>4.917417184265011</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1003305680433792</v>
+        <v>0.0478855998787824</v>
       </c>
       <c r="F46" t="n">
-        <v>56.00000000000001</v>
+        <v>48</v>
       </c>
       <c r="G46" t="n">
-        <v>1.607142857142857</v>
+        <v>1.625</v>
       </c>
       <c r="H46" t="n">
-        <v>248.1621621621622</v>
+        <v>145.2391304347826</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0230559163038792</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0188977572817488</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.040272381045072</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0284781393582336</v>
+        <v>0.0199232801982144</v>
       </c>
       <c r="M46" t="n">
-        <v>0.053203956739808</v>
+        <v>0.04082355956456064</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1246463516021655</v>
+        <v>0.0034986030311232</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02832005293832271</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3631,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.0206980291211904</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.04409481926800247</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0192545495489088</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3648,65 +3648,65 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.369615232381027</v>
+        <v>1.772360490084912</v>
       </c>
       <c r="C47" t="n">
-        <v>27.66666666666667</v>
+        <v>26.82352941176471</v>
       </c>
       <c r="D47" t="n">
-        <v>17.81313131313131</v>
+        <v>9.199583333333333</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.6435696586254769</v>
       </c>
       <c r="F47" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>1.727272727272727</v>
+        <v>12.26530612244898</v>
       </c>
       <c r="H47" t="n">
-        <v>248.6363636363636</v>
+        <v>169.1794871794872</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.3968771027400627</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.793546778422944</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.8063062017608348</v>
       </c>
       <c r="L47" t="n">
-        <v>0.019817261924544</v>
+        <v>0.940218982420032</v>
       </c>
       <c r="M47" t="n">
-        <v>0.577310276394432</v>
+        <v>1.26549120129264</v>
       </c>
       <c r="N47" t="n">
-        <v>0.889180259653793</v>
+        <v>0.8701904623618855</v>
       </c>
       <c r="O47" t="n">
-        <v>0.218452012106496</v>
+        <v>0.334272121774848</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.435245789676096</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.2796435849352321</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.594844067809152</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>0.168704975999616</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.331347881479104</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -3717,65 +3717,65 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.369615232381027</v>
+        <v>0.5993263585955534</v>
       </c>
       <c r="C48" t="n">
-        <v>27.66666666666667</v>
+        <v>20.78548292044674</v>
       </c>
       <c r="D48" t="n">
-        <v>17.81313131313131</v>
+        <v>5.44610750902828</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.1812308406300607</v>
       </c>
       <c r="F48" t="n">
-        <v>66</v>
+        <v>87.697</v>
       </c>
       <c r="G48" t="n">
-        <v>1.727272727272727</v>
+        <v>4.864942254893502</v>
       </c>
       <c r="H48" t="n">
-        <v>248.6363636363636</v>
+        <v>156.223634564707</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.1215348166924371</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.1793526320868043</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.2259044989330009</v>
       </c>
       <c r="L48" t="n">
-        <v>0.019817261924544</v>
+        <v>0.2412183814307219</v>
       </c>
       <c r="M48" t="n">
-        <v>0.577310276394432</v>
+        <v>0.2923669688794865</v>
       </c>
       <c r="N48" t="n">
-        <v>0.889180259653793</v>
+        <v>0.1720163142368618</v>
       </c>
       <c r="O48" t="n">
-        <v>0.218452012106496</v>
+        <v>0.07131313353259584</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.08400544521263535</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.04076264354039191</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>0.1088484735861949</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.05998189807145671</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>0.1415740857443195</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -3786,50 +3786,50 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.369615232381027</v>
+        <v>0.007268361527939575</v>
       </c>
       <c r="C49" t="n">
-        <v>27.66666666666667</v>
+        <v>17.56</v>
       </c>
       <c r="D49" t="n">
-        <v>17.81313131313131</v>
+        <v>1.465159509285768</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.0005743202600635163</v>
       </c>
       <c r="F49" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G49" t="n">
-        <v>1.727272727272727</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
-        <v>248.6363636363636</v>
+        <v>147.5744680851064</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0009118575258955421</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.001383228174012368</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.001199235217083187</v>
       </c>
       <c r="L49" t="n">
-        <v>0.019817261924544</v>
+        <v>0.001356059250934244</v>
       </c>
       <c r="M49" t="n">
-        <v>0.577310276394432</v>
+        <v>0.0009603088627625855</v>
       </c>
       <c r="N49" t="n">
-        <v>0.889180259653793</v>
+        <v>0.0007382319294820452</v>
       </c>
       <c r="O49" t="n">
-        <v>0.218452012106496</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.000907608169201608</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>0.001525877271132847</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -3855,65 +3855,65 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.59761383169472</v>
+        <v>2.895962542573363</v>
       </c>
       <c r="C50" t="n">
-        <v>20.25581395348837</v>
+        <v>31.75</v>
       </c>
       <c r="D50" t="n">
-        <v>6.910492801771871</v>
+        <v>13.53324829931973</v>
       </c>
       <c r="E50" t="n">
-        <v>0.49635734530535</v>
+        <v>0.6705803186703563</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>8.446808510638299</v>
+        <v>8.6</v>
       </c>
       <c r="H50" t="n">
-        <v>118.6122448979592</v>
+        <v>192.0357142857143</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8005544698089599</v>
+        <v>0.80968058494176</v>
       </c>
       <c r="J50" t="n">
-        <v>0.55486294575768</v>
+        <v>0.58279468324392</v>
       </c>
       <c r="K50" t="n">
-        <v>0.244902212178624</v>
+        <v>1.088236802967552</v>
       </c>
       <c r="L50" t="n">
-        <v>0.434022501902976</v>
+        <v>1.07710488423216</v>
       </c>
       <c r="M50" t="n">
-        <v>0.05642575812433517</v>
+        <v>0.4911500409076801</v>
       </c>
       <c r="N50" t="n">
-        <v>0.146916861551712</v>
+        <v>2.1427924159152</v>
       </c>
       <c r="O50" t="n">
-        <v>0.141228573406704</v>
+        <v>0.51745072802976</v>
       </c>
       <c r="P50" t="n">
-        <v>0.06373329297955201</v>
+        <v>0.27972513745344</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.027156988563264</v>
+        <v>2.62517556111552</v>
       </c>
       <c r="R50" t="n">
-        <v>0.089352434056608</v>
+        <v>0.3409914667572</v>
       </c>
       <c r="S50" t="n">
-        <v>0.44160688609632</v>
+        <v>0.3013051884254031</v>
       </c>
       <c r="T50" t="n">
-        <v>0.7420226866370477</v>
+        <v>0.62724080566728</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -3924,65 +3924,65 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8133265071849793</v>
+        <v>0.8439120846093897</v>
       </c>
       <c r="C51" t="n">
-        <v>19.20746195558877</v>
+        <v>20.39432304203608</v>
       </c>
       <c r="D51" t="n">
-        <v>3.938977718147084</v>
+        <v>4.640277131296534</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1889305378173587</v>
+        <v>0.1812511697141696</v>
       </c>
       <c r="F51" t="n">
-        <v>94.39574999999999</v>
+        <v>91.55555555555556</v>
       </c>
       <c r="G51" t="n">
-        <v>5.419657092591284</v>
+        <v>5.289079688859339</v>
       </c>
       <c r="H51" t="n">
-        <v>108.193261345442</v>
+        <v>172.1899139700843</v>
       </c>
       <c r="I51" t="n">
-        <v>0.322249642474971</v>
+        <v>0.209346293407724</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2365229618406181</v>
+        <v>0.2036441360315552</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1395962327792728</v>
+        <v>0.2977335535002463</v>
       </c>
       <c r="L51" t="n">
-        <v>0.142448948589888</v>
+        <v>0.2663328425851604</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02043695375697979</v>
+        <v>0.1727251468076141</v>
       </c>
       <c r="N51" t="n">
-        <v>0.049634901394344</v>
+        <v>0.3677728998939622</v>
       </c>
       <c r="O51" t="n">
-        <v>0.041545910994588</v>
+        <v>0.1276423122185762</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0186041682162</v>
+        <v>0.08073373092519184</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.011254247512704</v>
+        <v>0.5330087705338166</v>
       </c>
       <c r="R51" t="n">
-        <v>0.03875133696234093</v>
+        <v>0.1648200607456876</v>
       </c>
       <c r="S51" t="n">
-        <v>0.2451821026760222</v>
+        <v>0.1390186987112268</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3288233355844431</v>
+        <v>0.1707178820852908</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -3993,65 +3993,65 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4814912729799176</v>
+        <v>0.05629766057941939</v>
       </c>
       <c r="C52" t="n">
-        <v>18.06382978723404</v>
+        <v>17.96</v>
       </c>
       <c r="D52" t="n">
-        <v>2.105275988786627</v>
+        <v>2.040019790666849</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05628938726160604</v>
+        <v>0.006064555084425428</v>
       </c>
       <c r="F52" t="n">
-        <v>89.583</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>2.930232558139535</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H52" t="n">
-        <v>91.8936170212766</v>
+        <v>163.5869565217391</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08219054673280377</v>
+        <v>0.009954684149024753</v>
       </c>
       <c r="J52" t="n">
-        <v>0.09714592212052967</v>
+        <v>0.006647936311852138</v>
       </c>
       <c r="K52" t="n">
-        <v>0.061563089856128</v>
+        <v>0.01156150861807002</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0199314354500352</v>
+        <v>0.01069479723779712</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.009412643374261528</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>0.009721642688380799</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.013700823058944</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.019001736742464</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.008078016788850072</v>
       </c>
       <c r="S52" t="n">
-        <v>0.12599864063136</v>
+        <v>0.008577965706844801</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1409613816036278</v>
+        <v>0.01112402655621058</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -4062,65 +4062,65 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.895962542573363</v>
+        <v>0.6120219936898734</v>
       </c>
       <c r="C53" t="n">
-        <v>31.75</v>
+        <v>20.75</v>
       </c>
       <c r="D53" t="n">
-        <v>13.53324829931973</v>
+        <v>4.582735635576545</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6705803186703563</v>
+        <v>0.1216763417207833</v>
       </c>
       <c r="F53" t="n">
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>6.454545454545454</v>
+        <v>5.28</v>
       </c>
       <c r="H53" t="n">
-        <v>192.0357142857143</v>
+        <v>242.94</v>
       </c>
       <c r="I53" t="n">
-        <v>0.80968058494176</v>
+        <v>0.0056026580008896</v>
       </c>
       <c r="J53" t="n">
-        <v>0.58279468324392</v>
+        <v>0.08703136465851927</v>
       </c>
       <c r="K53" t="n">
-        <v>1.088236802967552</v>
+        <v>0.2851239141588096</v>
       </c>
       <c r="L53" t="n">
-        <v>1.07710488423216</v>
+        <v>0.134989805763792</v>
       </c>
       <c r="M53" t="n">
-        <v>0.4911500409076801</v>
+        <v>0.1629500866314048</v>
       </c>
       <c r="N53" t="n">
-        <v>2.1427924159152</v>
+        <v>0.3256729510741473</v>
       </c>
       <c r="O53" t="n">
-        <v>0.51745072802976</v>
+        <v>0.1670847993045504</v>
       </c>
       <c r="P53" t="n">
-        <v>0.27972513745344</v>
+        <v>0.05037721465666909</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.62517556111552</v>
+        <v>0.035789905133568</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3409914667572</v>
+        <v>0.044201464868736</v>
       </c>
       <c r="S53" t="n">
-        <v>0.3013051884254031</v>
+        <v>0.01311413424295565</v>
       </c>
       <c r="T53" t="n">
-        <v>0.62724080566728</v>
+        <v>0.022508495025408</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -4131,65 +4131,65 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6126368721526955</v>
+        <v>0.2111423712017478</v>
       </c>
       <c r="C54" t="n">
-        <v>21.64075884279265</v>
+        <v>19.81162055335968</v>
       </c>
       <c r="D54" t="n">
-        <v>5.142023806985529</v>
+        <v>3.882225255406391</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1379765004293749</v>
+        <v>0.04021164424375148</v>
       </c>
       <c r="F54" t="n">
-        <v>85.69230769230769</v>
+        <v>92</v>
       </c>
       <c r="G54" t="n">
-        <v>4.673292210005583</v>
+        <v>4.65399209486166</v>
       </c>
       <c r="H54" t="n">
-        <v>165.2969546136079</v>
+        <v>222.2844071146245</v>
       </c>
       <c r="I54" t="n">
-        <v>0.158555223750234</v>
+        <v>0.00218377255631472</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1646750763217333</v>
+        <v>0.02649618390625249</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2302673228194151</v>
+        <v>0.09805653643892441</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1876872328446243</v>
+        <v>0.0459010760214879</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1285930817412944</v>
+        <v>0.05921584568894676</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2312292307637666</v>
+        <v>0.09951346687247298</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1318085719748181</v>
+        <v>0.06516547486874054</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06378967623980536</v>
+        <v>0.02037056368136046</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3672243876201024</v>
+        <v>0.02348838542448298</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1374467454048834</v>
+        <v>0.02777806394559858</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1076906948651881</v>
+        <v>0.009326162489100913</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1413958028945147</v>
+        <v>0.01663304385111264</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -4200,65 +4200,65 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1752101903571462</v>
+        <v>0.04457015638968908</v>
       </c>
       <c r="C55" t="n">
-        <v>17.96</v>
+        <v>18.12</v>
       </c>
       <c r="D55" t="n">
-        <v>3.017634448884449</v>
+        <v>3.304781045751634</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04801074204912677</v>
+        <v>0.008754675168789215</v>
       </c>
       <c r="F55" t="n">
-        <v>56.00000000000001</v>
+        <v>88</v>
       </c>
       <c r="G55" t="n">
-        <v>2.769230769230769</v>
+        <v>4.204545454545454</v>
       </c>
       <c r="H55" t="n">
-        <v>144.5681818181818</v>
+        <v>190.6521739130435</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03604115679180749</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05222733601800293</v>
+        <v>0.005516538541661953</v>
       </c>
       <c r="K55" t="n">
-        <v>0.07924844495673464</v>
+        <v>0.017620440965316</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04175619416278778</v>
+        <v>0.00642980441681424</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0319033451229696</v>
+        <v>0.01657718037614016</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01056920635975702</v>
+        <v>0.01088120299370112</v>
       </c>
       <c r="O55" t="n">
-        <v>0.024221097907776</v>
+        <v>0.016759042491744</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.006157215124703999</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>0.0181332024235488</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0269367967641024</v>
+        <v>0.0114622064341344</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0280649399326464</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01790448467930182</v>
+        <v>0.01224674165929536</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -4269,53 +4269,53 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1202757813101551</v>
+        <v>1.369615232381027</v>
       </c>
       <c r="C56" t="n">
-        <v>39.34782608695652</v>
+        <v>37.83333333333334</v>
       </c>
       <c r="D56" t="n">
-        <v>20.95652173913043</v>
+        <v>17.81313131313131</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.9587684733797062</v>
       </c>
       <c r="F56" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G56" t="n">
-        <v>2.130434782608696</v>
+        <v>2.90625</v>
       </c>
       <c r="H56" t="n">
-        <v>247.6086956521739</v>
+        <v>251.8139534883721</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.0518429358248256</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>0.0347658385120704</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02315794962495535</v>
+        <v>0.03216870447067717</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.577310276394432</v>
       </c>
       <c r="N56" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.889180259653793</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.218452012106496</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.0012966850395072</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -4338,53 +4338,53 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1202757813101551</v>
+        <v>0.3925668106855091</v>
       </c>
       <c r="C57" t="n">
-        <v>39.34782608695652</v>
+        <v>28.01026012149046</v>
       </c>
       <c r="D57" t="n">
-        <v>20.95652173913043</v>
+        <v>14.26466154526175</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.2512029129271542</v>
       </c>
       <c r="F57" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G57" t="n">
-        <v>2.130434782608696</v>
+        <v>2.249865181273355</v>
       </c>
       <c r="H57" t="n">
-        <v>247.6086956521739</v>
+        <v>246.297388871863</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.0086404893041376</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.00775238238085248</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02315794962495535</v>
+        <v>0.01844655229158646</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.1486438803348724</v>
       </c>
       <c r="N57" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.261921413863734</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.07398980576581772</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.0002161141732512</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -4407,29 +4407,29 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1202757813101551</v>
+        <v>0.0837360868830192</v>
       </c>
       <c r="C58" t="n">
-        <v>39.34782608695652</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="D58" t="n">
-        <v>20.95652173913043</v>
+        <v>9.698958333333334</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.03934621021206078</v>
       </c>
       <c r="F58" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58" t="n">
-        <v>2.130434782608696</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="H58" t="n">
-        <v>247.6086956521739</v>
+        <v>234.2083333333333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4441,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02315794962495535</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.04382589406119916</v>
       </c>
       <c r="N58" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.03482210974963392</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.008171562324441601</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -4476,65 +4476,65 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.875516030505864</v>
+        <v>1.59761383169472</v>
       </c>
       <c r="C59" t="n">
-        <v>26.55882352941176</v>
+        <v>45.7</v>
       </c>
       <c r="D59" t="n">
-        <v>13.17401960784314</v>
+        <v>17.21071428571428</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9848941714754174</v>
+        <v>0.49635734530535</v>
       </c>
       <c r="F59" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>4.75</v>
+        <v>7.04</v>
       </c>
       <c r="H59" t="n">
-        <v>221.9714285714286</v>
+        <v>233.8837209302326</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1467278079867753</v>
+        <v>0.8005544698089599</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1725994664305314</v>
+        <v>0.6492989083762212</v>
       </c>
       <c r="K59" t="n">
-        <v>0.49700434667904</v>
+        <v>0.643752278014464</v>
       </c>
       <c r="L59" t="n">
-        <v>1.116702177583805</v>
+        <v>0.434022501902976</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7881309498274036</v>
+        <v>0.3911462654551286</v>
       </c>
       <c r="N59" t="n">
-        <v>0.5231594043043201</v>
+        <v>0.3652762599938587</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8312240418350401</v>
+        <v>0.02039220717791227</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5082026724649729</v>
+        <v>0.0025525938199104</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.270387374118624</v>
+        <v>0.004648493537856</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8210707533181442</v>
+        <v>0.010275617294208</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09991814530844161</v>
+        <v>0.44160688609632</v>
       </c>
       <c r="T59" t="n">
-        <v>0.163675904043456</v>
+        <v>0.7420226866370477</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -4545,65 +4545,65 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.857836461744682</v>
+        <v>0.4443602588697264</v>
       </c>
       <c r="C60" t="n">
-        <v>22.78636090305687</v>
+        <v>24.97597009233845</v>
       </c>
       <c r="D60" t="n">
-        <v>7.60206481761018</v>
+        <v>7.643924059740674</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3521326014644586</v>
+        <v>0.147507675089519</v>
       </c>
       <c r="F60" t="n">
-        <v>81.5</v>
+        <v>78.63191666666667</v>
       </c>
       <c r="G60" t="n">
-        <v>3.416217573986116</v>
+        <v>3.756095517085966</v>
       </c>
       <c r="H60" t="n">
-        <v>197.6043101479723</v>
+        <v>172.4611069303989</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06135158875461382</v>
+        <v>0.1365536351502054</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08504407481540086</v>
+        <v>0.139763914898426</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2353427681128472</v>
+        <v>0.1359924860865174</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3742989393426737</v>
+        <v>0.1118467786773913</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2952637450565022</v>
+        <v>0.08308464228759933</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2717954524841381</v>
+        <v>0.06266233418127816</v>
       </c>
       <c r="O60" t="n">
-        <v>0.4155242460480851</v>
+        <v>0.00273441346024454</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1432592311100832</v>
+        <v>0.0002127161516592</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1050946914016944</v>
+        <v>0.0006511227192379636</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3553100501415696</v>
+        <v>0.001423389423084591</v>
       </c>
       <c r="S60" t="n">
-        <v>0.0664122932026848</v>
+        <v>0.06349470817494467</v>
       </c>
       <c r="T60" t="n">
-        <v>0.08209959968431201</v>
+        <v>0.1037112618635496</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -4614,65 +4614,65 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.321357697998624</v>
+        <v>0.008213888081391552</v>
       </c>
       <c r="C61" t="n">
-        <v>18.97916666666667</v>
+        <v>18.14</v>
       </c>
       <c r="D61" t="n">
-        <v>4.070179473304472</v>
+        <v>2.455955683205683</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0882293151057036</v>
+        <v>0.002254021930803212</v>
       </c>
       <c r="F61" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>1.911764705882353</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="H61" t="n">
-        <v>174.9347826086957</v>
+        <v>100.0208333333333</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.001566475597469847</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1179012647912237</v>
+        <v>0.00224350977590208</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05345767568534401</v>
+        <v>0.001804716451683936</v>
       </c>
       <c r="M61" t="n">
-        <v>0.078548667120672</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.07301915925732655</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.08538548656377601</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.033599637501696</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0786818695670784</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04220342817264</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>0.00042019935006672</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -4683,65 +4683,65 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.331787555925095</v>
+        <v>1.453021216911936</v>
       </c>
       <c r="C62" t="n">
-        <v>41.45454545454545</v>
+        <v>45.7</v>
       </c>
       <c r="D62" t="n">
-        <v>16.96123188405797</v>
+        <v>18.98263888888889</v>
       </c>
       <c r="E62" t="n">
-        <v>0.14418635914045</v>
+        <v>1.087648636321082</v>
       </c>
       <c r="F62" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>3.909090909090909</v>
+        <v>6.92</v>
       </c>
       <c r="H62" t="n">
-        <v>234.2083333333333</v>
+        <v>249</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05325216333945998</v>
+        <v>0.4206664235800931</v>
       </c>
       <c r="J62" t="n">
-        <v>0.15229932775344</v>
+        <v>0.6492989083762212</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1597482093011461</v>
+        <v>0.643752278014464</v>
       </c>
       <c r="L62" t="n">
-        <v>0.13502038795812</v>
+        <v>0.3568100168257373</v>
       </c>
       <c r="M62" t="n">
-        <v>0.111456807228396</v>
+        <v>0.6078652865496961</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1316746958986368</v>
+        <v>0.9330213150065776</v>
       </c>
       <c r="O62" t="n">
-        <v>0.02130110999333882</v>
+        <v>0.30628067619492</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>0.005064411380716801</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.009786302184960001</v>
       </c>
       <c r="R62" t="n">
-        <v>0.022508495025408</v>
+        <v>0.024256048987008</v>
       </c>
       <c r="S62" t="n">
-        <v>0.007095069084096</v>
+        <v>0.194074605205488</v>
       </c>
       <c r="T62" t="n">
-        <v>0.00571642376378984</v>
+        <v>0.336519670342128</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4752,65 +4752,65 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1624667951594629</v>
+        <v>0.4535105817777208</v>
       </c>
       <c r="C63" t="n">
-        <v>35.88518667841056</v>
+        <v>27.37373375306041</v>
       </c>
       <c r="D63" t="n">
-        <v>13.12873620160402</v>
+        <v>10.61851285414328</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06549720249553442</v>
+        <v>0.2061674131313281</v>
       </c>
       <c r="F63" t="n">
-        <v>51.33333333333334</v>
+        <v>72.05746666666667</v>
       </c>
       <c r="G63" t="n">
-        <v>3.039693360797607</v>
+        <v>3.462043910407824</v>
       </c>
       <c r="H63" t="n">
-        <v>217.7124530195801</v>
+        <v>182.937171877647</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02572716903778226</v>
+        <v>0.07914918884058114</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04106093176089142</v>
+        <v>0.08706037482853804</v>
       </c>
       <c r="K63" t="n">
-        <v>0.05940363528490086</v>
+        <v>0.09196011106854275</v>
       </c>
       <c r="L63" t="n">
-        <v>0.06043987072978194</v>
+        <v>0.06925504155706425</v>
       </c>
       <c r="M63" t="n">
-        <v>0.06168808870626282</v>
+        <v>0.1218972044919182</v>
       </c>
       <c r="N63" t="n">
-        <v>0.05523336170208643</v>
+        <v>0.1532740415835518</v>
       </c>
       <c r="O63" t="n">
-        <v>0.006739228262981803</v>
+        <v>0.04050271401637631</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.0003612776556614401</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.00113847315418368</v>
       </c>
       <c r="R63" t="n">
-        <v>0.003751415837568</v>
+        <v>0.002653221860472575</v>
       </c>
       <c r="S63" t="n">
-        <v>0.001182511514016</v>
+        <v>0.03352979911362218</v>
       </c>
       <c r="T63" t="n">
-        <v>0.002290198592576173</v>
+        <v>0.05744004484079644</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4821,29 +4821,29 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0530172920870208</v>
+        <v>0.0008521494585658221</v>
       </c>
       <c r="C64" t="n">
-        <v>29.48387096774194</v>
+        <v>18.18</v>
       </c>
       <c r="D64" t="n">
-        <v>7.425576036866358</v>
+        <v>2.525519952269952</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01884823001379164</v>
+        <v>0.0004546882698074047</v>
       </c>
       <c r="F64" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>2.52</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="H64" t="n">
-        <v>194.16</v>
+        <v>88.3</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4852,16 +4852,16 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0047891716317648</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0091746582984</v>
+        <v>4.5750962714688e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.030119092528176</v>
+        <v>0.000445847617043136</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0232302348115488</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4890,65 +4890,65 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.771538168859648</v>
+        <v>2.895962542573363</v>
       </c>
       <c r="C65" t="n">
-        <v>29.29032258064516</v>
+        <v>21.23255813953488</v>
       </c>
       <c r="D65" t="n">
-        <v>6.689938556067587</v>
+        <v>4.184261904761906</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5551907437313957</v>
+        <v>0.6705803186703563</v>
       </c>
       <c r="F65" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>5.578947368421052</v>
+        <v>7.375</v>
       </c>
       <c r="H65" t="n">
-        <v>163</v>
+        <v>182.7234042553191</v>
       </c>
       <c r="I65" t="n">
-        <v>0.429491806446976</v>
+        <v>0.80968058494176</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5440776252246721</v>
+        <v>0.58279468324392</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7275789464444927</v>
+        <v>1.088236802967552</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6311743085929158</v>
+        <v>1.07710488423216</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7400891027376</v>
+        <v>0.4911500409076801</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2354828963256</v>
+        <v>2.1427924159152</v>
       </c>
       <c r="O65" t="n">
-        <v>0.4025399677739614</v>
+        <v>0.51745072802976</v>
       </c>
       <c r="P65" t="n">
-        <v>0.08114475561696001</v>
+        <v>0.27972513745344</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.202087140119424</v>
+        <v>2.62517556111552</v>
       </c>
       <c r="R65" t="n">
-        <v>0.476592916407552</v>
+        <v>0.3409914667572</v>
       </c>
       <c r="S65" t="n">
-        <v>0.27462810506544</v>
+        <v>0.3013051884254031</v>
       </c>
       <c r="T65" t="n">
-        <v>0.432939018446784</v>
+        <v>0.62724080566728</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -4959,65 +4959,65 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9408161297244642</v>
+        <v>0.6373176597898322</v>
       </c>
       <c r="C66" t="n">
-        <v>24.50976831129632</v>
+        <v>19.15073941263033</v>
       </c>
       <c r="D66" t="n">
-        <v>5.65070126515318</v>
+        <v>3.027042437253221</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2462101349381176</v>
+        <v>0.1128714766326829</v>
       </c>
       <c r="F66" t="n">
-        <v>75.611</v>
+        <v>95.33333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>4.295795818970691</v>
+        <v>6.097612487280035</v>
       </c>
       <c r="H66" t="n">
-        <v>153.2494152046784</v>
+        <v>164.649255386048</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2894355504895124</v>
+        <v>0.1570850896903149</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2708776964985586</v>
+        <v>0.1558307125291947</v>
       </c>
       <c r="K66" t="n">
-        <v>0.373699985415317</v>
+        <v>0.2191915041710028</v>
       </c>
       <c r="L66" t="n">
-        <v>0.3246318297882497</v>
+        <v>0.1780136490795488</v>
       </c>
       <c r="M66" t="n">
-        <v>0.248121497834885</v>
+        <v>0.1204272847464225</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1101631804083219</v>
+        <v>0.2315000820738582</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1843812728912855</v>
+        <v>0.101884421758783</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0435103072769233</v>
+        <v>0.07256614914032938</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1248487501246275</v>
+        <v>0.3239450578571033</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2381802458653297</v>
+        <v>0.1113759972077587</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1578245108620323</v>
+        <v>0.1082284657564634</v>
       </c>
       <c r="T66" t="n">
-        <v>0.2920707469781133</v>
+        <v>0.1346701248273862</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -5028,65 +5028,65 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3440107633972189</v>
+        <v>0.02188143771290669</v>
       </c>
       <c r="C67" t="n">
-        <v>19.84444444444444</v>
+        <v>17.96</v>
       </c>
       <c r="D67" t="n">
-        <v>3.597635478556532</v>
+        <v>2.375684047978165</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08756721701743339</v>
+        <v>0.002907837336158197</v>
       </c>
       <c r="F67" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G67" t="n">
-        <v>3.488888888888889</v>
+        <v>4.18</v>
       </c>
       <c r="H67" t="n">
-        <v>141</v>
+        <v>139.62</v>
       </c>
       <c r="I67" t="n">
-        <v>0.172707845434992</v>
+        <v>0.005495074800518452</v>
       </c>
       <c r="J67" t="n">
-        <v>0.111028656507804</v>
+        <v>0.00686400361584</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1260653654189847</v>
+        <v>0.005936930122664448</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1544918358391089</v>
+        <v>0.00357082231669184</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0319033451229696</v>
+        <v>0.005653057457142145</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0511823604273408</v>
+        <v>0.002238127309700352</v>
       </c>
       <c r="O67" t="n">
-        <v>0.04831986703824</v>
+        <v>0.001506868120525091</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.00134439326265888</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.003730049077797504</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01678350824720693</v>
+        <v>0.00125101562931072</v>
       </c>
       <c r="S67" t="n">
-        <v>0.06449173139888639</v>
+        <v>0.001785266176091328</v>
       </c>
       <c r="T67" t="n">
-        <v>0.119454051045168</v>
+        <v>0.00478550176844544</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -5097,65 +5097,65 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.117430205882539</v>
+        <v>0.1166973986416545</v>
       </c>
       <c r="C68" t="n">
-        <v>31.3448275862069</v>
+        <v>39.69565217391305</v>
       </c>
       <c r="D68" t="n">
-        <v>18.50574712643678</v>
+        <v>21.17246376811594</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5373867208264009</v>
+        <v>0.0642167930396756</v>
       </c>
       <c r="F68" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G68" t="n">
-        <v>3.861111111111111</v>
+        <v>3.458333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>255.4473684210526</v>
+        <v>246.4782608695652</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3945949959847237</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4104375136372224</v>
+        <v>0.0202494902710464</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6554820720294459</v>
+        <v>0.0069482745513216</v>
       </c>
       <c r="L68" t="n">
-        <v>0.4546600862165534</v>
+        <v>0.0217684059226704</v>
       </c>
       <c r="M68" t="n">
-        <v>0.09818923192243201</v>
+        <v>0.0529660305041472</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1647744164637185</v>
+        <v>0.05507112787452228</v>
       </c>
       <c r="O68" t="n">
-        <v>0.364662085167072</v>
+        <v>0.0321663519941904</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0860573538483973</v>
+        <v>0.006483425197536001</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.07954880829324605</v>
+        <v>0.0001957260436992</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1027336644470551</v>
+        <v>0.0287961941792448</v>
       </c>
       <c r="S68" t="n">
-        <v>0.04280039260592256</v>
+        <v>0.008758740455539201</v>
       </c>
       <c r="T68" t="n">
-        <v>0.2507739934896</v>
+        <v>0</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -5166,65 +5166,65 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3585625666510041</v>
+        <v>0.08492921352100845</v>
       </c>
       <c r="C69" t="n">
-        <v>27.16946047929153</v>
+        <v>38.45199275362319</v>
       </c>
       <c r="D69" t="n">
-        <v>10.61159799177497</v>
+        <v>15.90442480225089</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1685194826557656</v>
+        <v>0.03964433696771905</v>
       </c>
       <c r="F69" t="n">
-        <v>67.42857142857143</v>
+        <v>47</v>
       </c>
       <c r="G69" t="n">
-        <v>2.700260042008334</v>
+        <v>2.968297101449275</v>
       </c>
       <c r="H69" t="n">
-        <v>191.704895661999</v>
+        <v>244.3849637681159</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1364167003234978</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1467584993692797</v>
+        <v>0.0101247451355232</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1823046425687357</v>
+        <v>0.0036576304416288</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1339965450165806</v>
+        <v>0.0137115268269588</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03792168795952518</v>
+        <v>0.04475213853930241</v>
       </c>
       <c r="N69" t="n">
-        <v>0.06066259101845496</v>
+        <v>0.03967465627252194</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1344604589729186</v>
+        <v>0.02639304534895056</v>
       </c>
       <c r="P69" t="n">
-        <v>0.04361146913421442</v>
+        <v>0.004515970695768</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.04529421199972193</v>
+        <v>9.78630218496e-05</v>
       </c>
       <c r="R69" t="n">
-        <v>0.05375802487213432</v>
+        <v>0.0143980970896224</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01810655222563444</v>
+        <v>0.004379370227769601</v>
       </c>
       <c r="T69" t="n">
-        <v>0.09370572689581733</v>
+        <v>0</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -5235,65 +5235,65 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06425658830472</v>
+        <v>0.0531610284003624</v>
       </c>
       <c r="C70" t="n">
-        <v>23.92105263157895</v>
+        <v>37.20833333333334</v>
       </c>
       <c r="D70" t="n">
-        <v>6.01550675404842</v>
+        <v>10.63638583638584</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01733317631422562</v>
+        <v>0.01507188089576248</v>
       </c>
       <c r="F70" t="n">
-        <v>57.99999999999999</v>
+        <v>46</v>
       </c>
       <c r="G70" t="n">
-        <v>1.758620689655172</v>
+        <v>2.478260869565217</v>
       </c>
       <c r="H70" t="n">
-        <v>149.7878787878788</v>
+        <v>242.2916666666667</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0109606584471552</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0245717737360704</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.03392666309971008</v>
+        <v>0.000366986331936</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0068442950906064</v>
+        <v>0.0056546477312472</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.0365382465744576</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>0.0242781846705216</v>
       </c>
       <c r="O70" t="n">
-        <v>0.023840519489472</v>
+        <v>0.02061973870371072</v>
       </c>
       <c r="P70" t="n">
-        <v>0.01621857171198371</v>
+        <v>0.002548516194</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.020061919479168</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0.024710413017024</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0008073699302592</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.009465528946675199</v>
+        <v>0</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -5304,65 +5304,65 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.633151397396263</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C71" t="n">
-        <v>21.11627906976744</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D71" t="n">
-        <v>4.443041712809155</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5975840470743085</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G71" t="n">
-        <v>7.142857142857143</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H71" t="n">
-        <v>177.0666666666667</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6637945758351158</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5525183108592001</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9970189959887071</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L71" t="n">
-        <v>0.98588256743664</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M71" t="n">
-        <v>0.4616831971963483</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N71" t="n">
-        <v>1.11292003181184</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O71" t="n">
-        <v>0.4373253788904</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.45016990050816</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.131456615884288</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2955463259857921</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2907929792102401</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T71" t="n">
-        <v>0.50413048338912</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -5373,65 +5373,65 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6386504026699545</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C72" t="n">
-        <v>19.03188920627018</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D72" t="n">
-        <v>3.331613107913082</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1269449015650182</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F72" t="n">
-        <v>95.23975</v>
+        <v>54</v>
       </c>
       <c r="G72" t="n">
-        <v>5.744524723836569</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H72" t="n">
-        <v>162.7375577568333</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1496779166324471</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1699282222968842</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2298806188630418</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2041422128292769</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1336920257493648</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2044301140417815</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O72" t="n">
-        <v>0.091241471708015</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.07897455427345207</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3791156821433565</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.08926970171882517</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.08549804872983087</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1235215454305703</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -5442,65 +5442,65 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08708039081453323</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C73" t="n">
-        <v>18.1</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D73" t="n">
-        <v>2.464971612312038</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01166099089610491</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F73" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G73" t="n">
-        <v>4.34</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H73" t="n">
-        <v>149.2173913043478</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01736867155138364</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02713348396248057</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02917024839609227</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01636966058365404</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02083089176543767</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N73" t="n">
-        <v>0.009205087581756408</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01673502156819916</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.004303875896628511</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.006666918363504</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.004660590494723543</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.005806496374031628</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01982809028668391</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -5511,50 +5511,50 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.59761383169472</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C74" t="n">
-        <v>20.25581395348837</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D74" t="n">
-        <v>6.910492801771871</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E74" t="n">
-        <v>0.49635734530535</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F74" t="n">
-        <v>89.583</v>
+        <v>26</v>
       </c>
       <c r="G74" t="n">
-        <v>2.930232558139535</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H74" t="n">
-        <v>110.5116279069767</v>
+        <v>172.4615384615385</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8005544698089599</v>
+        <v>0.342561352732704</v>
       </c>
       <c r="J74" t="n">
-        <v>0.55486294575768</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K74" t="n">
-        <v>0.244902212178624</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L74" t="n">
-        <v>0.434022501902976</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N74" t="n">
-        <v>0.04403835983232</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5566,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.44160688609632</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.7420226866370477</v>
+        <v>0.077801102370432</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -5580,50 +5580,50 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.59761383169472</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C75" t="n">
-        <v>20.25581395348837</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D75" t="n">
-        <v>6.910492801771871</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E75" t="n">
-        <v>0.49635734530535</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F75" t="n">
-        <v>89.583</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>2.930232558139535</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H75" t="n">
-        <v>110.5116279069767</v>
+        <v>172.4615384615385</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8005544698089599</v>
+        <v>0.342561352732704</v>
       </c>
       <c r="J75" t="n">
-        <v>0.55486294575768</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K75" t="n">
-        <v>0.244902212178624</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L75" t="n">
-        <v>0.434022501902976</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N75" t="n">
-        <v>0.04403835983232</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.44160688609632</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.7420226866370477</v>
+        <v>0.077801102370432</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -5649,67 +5649,1516 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.492787479444283</v>
+      </c>
+      <c r="C76" t="n">
+        <v>69.92307692307692</v>
+      </c>
+      <c r="D76" t="n">
+        <v>35.87435897435898</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7770512132977182</v>
+      </c>
+      <c r="F76" t="n">
+        <v>26</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="H76" t="n">
+        <v>172.4615384615385</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.342561352732704</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.672074302552128</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.505843086271488</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.523757456104512</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.348820508505168</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.186429056623488</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.094111606012032</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.077801102370432</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4.838009043630129</v>
+      </c>
+      <c r="C77" t="n">
+        <v>34.53846153846154</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16.1025641025641</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.190877035304763</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H77" t="n">
+        <v>218.3235294117647</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.336474083917103</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.566843439247779</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.858011022332864</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.35401343807392</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.858102169264979</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.82514535749504</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.06300686893504</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4.22401268058336</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5423242460832</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.22818092421248</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.368454277263744</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.17802612551456</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7048148800775252</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20.15927658677449</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.602998602728188</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2643277898022836</v>
+      </c>
+      <c r="F78" t="n">
+        <v>92.41889473684211</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.395616438383739</v>
+      </c>
+      <c r="H78" t="n">
+        <v>178.7663939922478</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.1593096183891076</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1321386172756416</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2233031363582897</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.2864770499305027</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.2224371053015671</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1734861205681343</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.2109507083193681</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.2453741777537717</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.07540032566897577</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1397718111097003</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.05546664659657437</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.1444363451069954</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.004316933619829555</v>
+      </c>
+      <c r="C79" t="n">
+        <v>18.04081632653061</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.493808759008449</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0006024405874624208</v>
+      </c>
+      <c r="F79" t="n">
+        <v>52</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="H79" t="n">
+        <v>147.12</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001299354031012189</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.001848777053112131</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0008550359710738759</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0003425205764736</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0004321425017463916</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C80" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F80" t="n">
+        <v>40</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H80" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C81" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F81" t="n">
+        <v>40</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H81" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C82" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F82" t="n">
+        <v>40</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H82" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.771538168859648</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.357264957264958</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5551907437313957</v>
+      </c>
+      <c r="F83" t="n">
+        <v>97.82600000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6.454545454545454</v>
+      </c>
+      <c r="H83" t="n">
+        <v>163.7333333333333</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.429491806446976</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5440776252246721</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.7275789464444927</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.6311743085929158</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7400891027376</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.2354828963256</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.4025399677739614</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.139874219086464</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.202087140119424</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.421789624171776</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.27462810506544</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.432939018446784</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6447837265131483</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21.48158836777258</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.758597261962066</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1561144535717839</v>
+      </c>
+      <c r="F84" t="n">
+        <v>85.75285714285714</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.634034605745131</v>
+      </c>
+      <c r="H84" t="n">
+        <v>156.4708529774319</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.1743050571201264</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1906811572322342</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2539731418354401</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.2016024967571206</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.1565702248103076</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.07244766498173295</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1074588406527458</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.04406245111193354</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.09340745826910479</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1256629105502801</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.1109379028532074</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.1764459410279196</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1113806235843034</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18.62222222222222</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.017634448884449</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.02167599813273743</v>
+      </c>
+      <c r="F85" t="n">
+        <v>66</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.488888888888889</v>
+      </c>
+      <c r="H85" t="n">
+        <v>144.5681818181818</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.035978252616096</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02245059273748032</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.04049008390374284</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.03464795805393339</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0146357644284</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.01982745598932</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.02654045152561153</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.01678350824720693</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.01651438493712</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.0375007604619744</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.117430205882539</v>
+      </c>
+      <c r="C86" t="n">
+        <v>35.07692307692308</v>
+      </c>
+      <c r="D86" t="n">
+        <v>25.19871794871795</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5373867208264009</v>
+      </c>
+      <c r="F86" t="n">
+        <v>92</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="H86" t="n">
+        <v>255.4473684210526</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3945949959847237</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.4104375136372224</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.6554820720294459</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.4546600862165534</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.136233481666464</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.128812202509536</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.7363580750295841</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.4007490744741121</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.301112285353488</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.476592916407552</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.158130332805312</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.331725061875816</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4882870268197532</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.08139714196517</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10.41584756615059</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1952902840441712</v>
+      </c>
+      <c r="F87" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.998745504819594</v>
+      </c>
+      <c r="H87" t="n">
+        <v>178.7555678661221</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1640111296260616</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1648648835929793</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2232873705707206</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2086312251593306</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.07010870398496877</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.06384677330863844</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.2117972119094888</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.07877658675756789</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1221178452694167</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1546462592290846</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.05417255486589059</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.1629485293666524</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1200360784909051</v>
+      </c>
+      <c r="C88" t="n">
+        <v>19.65217391304348</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.016885891885892</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.04337402433833742</v>
+      </c>
+      <c r="F88" t="n">
+        <v>52</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.423076923076923</v>
+      </c>
+      <c r="H88" t="n">
+        <v>141</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0109606584471552</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.053906214535488</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.06147021059928</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0068442950906064</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.01741445289640912</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0096517405299168</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.01370938607335597</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.024710413017024</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0135662614039008</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.953797476701664</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31.51724137931035</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.03108108108108</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3291833233573157</v>
+      </c>
+      <c r="F89" t="n">
+        <v>96</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>217.6428571428571</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.555966817343424</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.2327671974692736</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3932992519358112</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.2118408212971008</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4459087814317921</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.526258399996224</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.033311181954464</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.479773464617664</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.742454125765632</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3612124136468736</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.334827455589312</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.385733217059064</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.495929060660399</v>
+      </c>
+      <c r="C90" t="n">
+        <v>23.83691682249872</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.284429963437459</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1384664049783631</v>
+      </c>
+      <c r="F90" t="n">
+        <v>77.80850000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.083650396199838</v>
+      </c>
+      <c r="H90" t="n">
+        <v>183.1347791603623</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1813360684854262</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1071825065653926</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1300033727256837</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.08604799941099447</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.1662431184162929</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.2040424058959402</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.2970750974975446</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.2049414517521357</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.1910301961941373</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1719034261850992</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.1438361925067467</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.1056022196595469</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1651866644432592</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.97916666666667</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.603948240621035</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.02880791127485889</v>
+      </c>
+      <c r="F91" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.297297297297297</v>
+      </c>
+      <c r="H91" t="n">
+        <v>151.8717948717949</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01760422313499055</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.021071131891992</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.007980729431834987</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.03401596310714784</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.05163803512282831</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.05120030198134657</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.00669872384560512</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.04155655359821439</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0275525182765728</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.06021905904910582</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.04208675710127894</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.01472349163727261</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.633151397396263</v>
+      </c>
+      <c r="C92" t="n">
+        <v>21.11627906976744</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.443041712809155</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5975840470743085</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>181.875</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6637945758351158</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5525183108592001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9970189959887071</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.98588256743664</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4616831971963483</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.11292003181184</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.4373253788904</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.45016990050816</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.131456615884288</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.2955463259857921</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.2907929792102401</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.50413048338912</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6372101475603722</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.67519602317671</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.115205334647407</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1237632293566714</v>
+      </c>
+      <c r="F93" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.108075017797817</v>
+      </c>
+      <c r="H93" t="n">
+        <v>165.6021929876602</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1466266217870711</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.14687023745169</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2243012949775494</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.2087187070800607</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.1262558936910752</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.2053539477848772</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.09481458871898507</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.09238223389310764</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.357546668001536</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.08608989891108623</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.08280391365737959</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.1225758228657488</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0865221247863</v>
+      </c>
+      <c r="C94" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.075576645576646</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01172440910832619</v>
+      </c>
+      <c r="F94" t="n">
+        <v>86</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H94" t="n">
+        <v>140.46</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01326796738537846</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02043361076407754</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.02142647725963541</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.02232500185944</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.01936730476973551</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0209151627009192</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.008477384267722401</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.003819104427680693</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.006666918363504</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.01636314208517062</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.0145372460738148</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.01115883106640064</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B95" t="n">
         <v>1.59761383169472</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C95" t="n">
         <v>20.25581395348837</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D95" t="n">
         <v>6.910492801771871</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E95" t="n">
         <v>0.49635734530535</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F95" t="n">
         <v>89.583</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G95" t="n">
         <v>2.930232558139535</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H95" t="n">
         <v>110.5116279069767</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I95" t="n">
         <v>0.8005544698089599</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J95" t="n">
         <v>0.55486294575768</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K95" t="n">
         <v>0.244902212178624</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L95" t="n">
         <v>0.434022501902976</v>
       </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.04403835983232</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
         <v>0.44160688609632</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T95" t="n">
         <v>0.7420226866370477</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F96" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H96" t="n">
+        <v>110.5116279069767</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.25581395348837</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.910492801771871</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F97" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.930232558139535</v>
+      </c>
+      <c r="H97" t="n">
+        <v>110.5116279069767</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.55486294575768</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.244902212178624</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>min</t>
         </is>
